--- a/data/APRA-MySuper-Product-Heatmap.xlsx
+++ b/data/APRA-MySuper-Product-Heatmap.xlsx
@@ -1,11 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4077D4-6BBA-4DAB-BC52-31C4A3236AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="26" r:id="rId1"/>
@@ -2746,13 +2747,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6908,17 +6909,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="61" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="61" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="61" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="61" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
@@ -6935,6 +6930,24 @@
     <xf numFmtId="0" fontId="31" fillId="61" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="61" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="61" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6949,18 +6962,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6997,13 +6998,13 @@
     <cellStyle name="Comma" xfId="7" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="3"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="5"/>
-    <cellStyle name="Normal 2 3" xfId="8"/>
-    <cellStyle name="Normal 2 3 2" xfId="10"/>
-    <cellStyle name="Normal 2 4" xfId="9"/>
-    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 2 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="10">
@@ -7312,7 +7313,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7356,7 +7363,13 @@
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7410,7 +7423,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Creative Commons License"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Creative Commons License">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7473,7 +7492,13 @@
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7527,7 +7552,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 2" descr="Creative Commons License"/>
+        <xdr:cNvPr id="5" name="Picture 2" descr="Creative Commons License">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7590,7 +7621,13 @@
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7644,7 +7681,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 2" descr="Creative Commons License"/>
+        <xdr:cNvPr id="7" name="Picture 2" descr="Creative Commons License">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7707,7 +7750,13 @@
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7761,7 +7810,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 2" descr="Creative Commons License"/>
+        <xdr:cNvPr id="9" name="Picture 2" descr="Creative Commons License">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7824,7 +7879,13 @@
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7878,7 +7939,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 2" descr="Creative Commons License"/>
+        <xdr:cNvPr id="11" name="Picture 2" descr="Creative Commons License">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7941,7 +8008,13 @@
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7995,7 +8068,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 2" descr="Creative Commons License"/>
+        <xdr:cNvPr id="13" name="Picture 2" descr="Creative Commons License">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8058,7 +8137,13 @@
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8112,7 +8197,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 2" descr="Creative Commons License"/>
+        <xdr:cNvPr id="15" name="Picture 2" descr="Creative Commons License">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8185,7 +8276,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8223,7 +8320,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvPr id="3" name="Oval 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8287,7 +8390,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8337,7 +8446,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Oval 4"/>
+        <xdr:cNvPr id="5" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8401,7 +8516,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8451,7 +8572,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Oval 6"/>
+        <xdr:cNvPr id="7" name="Oval 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8515,7 +8642,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8570,7 +8703,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -25291,13 +25430,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A3:E13" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:E13" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <tableColumns count="5">
-    <tableColumn id="1" name="Level" dataDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" name="Metric" dataDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" name="Definition" dataDxfId="2" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" name="Data source" dataDxfId="1" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" name="Data published in" dataDxfId="0" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Level" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Metric" dataDxfId="3" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Definition" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Data source" dataDxfId="1" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Data published in" dataDxfId="0" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -25581,61 +25720,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="96.5703125" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="96.59765625" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="2" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="3" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="4" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="5" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:2" s="152" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="13.9"/>
+    <row r="2" ht="13.9"/>
+    <row r="3" ht="13.9"/>
+    <row r="4" ht="13.9"/>
+    <row r="5" ht="13.9"/>
+    <row r="6" ht="15" customHeight="1"/>
+    <row r="7" ht="15" customHeight="1"/>
+    <row r="8" ht="15" customHeight="1"/>
+    <row r="9" ht="15" customHeight="1"/>
+    <row r="10" ht="15" customHeight="1"/>
+    <row r="11" ht="15" customHeight="1"/>
+    <row r="12" ht="15" customHeight="1"/>
+    <row r="13" ht="15" customHeight="1"/>
+    <row r="14" ht="15" customHeight="1"/>
+    <row r="15" ht="15" customHeight="1"/>
+    <row r="16" ht="15" customHeight="1"/>
+    <row r="17" spans="1:2" s="152" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:2" ht="15" customHeight="1"/>
+    <row r="19" spans="1:2" ht="15" customHeight="1"/>
+    <row r="20" spans="1:2" ht="15" customHeight="1"/>
+    <row r="21" spans="1:2" ht="15" customHeight="1"/>
+    <row r="22" spans="1:2" ht="15" customHeight="1"/>
+    <row r="23" spans="1:2" ht="15" customHeight="1"/>
+    <row r="24" spans="1:2" ht="13.9"/>
+    <row r="25" spans="1:2" ht="13.9"/>
+    <row r="26" spans="1:2" ht="13.9"/>
+    <row r="27" spans="1:2" ht="13.9"/>
+    <row r="28" spans="1:2" ht="13.9"/>
+    <row r="29" spans="1:2" ht="13.9"/>
+    <row r="30" spans="1:2" ht="13.9"/>
+    <row r="31" spans="1:2" ht="13.9"/>
+    <row r="32" spans="1:2" ht="13.9"/>
+    <row r="33" ht="13.9"/>
+    <row r="34" ht="13.9"/>
+    <row r="35" ht="13.9"/>
+    <row r="36" ht="13.9"/>
+    <row r="37" ht="13.9"/>
+    <row r="38" ht="13.9"/>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0" header="0.47244094488188981" footer="0.31496062992125984"/>
@@ -25649,7 +25788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -25657,140 +25796,140 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" style="103" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="103" customWidth="1"/>
-    <col min="3" max="3" width="87.42578125" style="104" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="103"/>
+    <col min="1" max="1" width="0.86328125" style="103" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" style="103" customWidth="1"/>
+    <col min="3" max="3" width="87.3984375" style="104" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="521" t="s">
+    <row r="1" spans="2:3" ht="2.4500000000000002" customHeight="1"/>
+    <row r="2" spans="2:3" ht="15">
+      <c r="B2" s="522" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="521"/>
+      <c r="C2" s="522"/>
     </row>
-    <row r="3" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="525" t="s">
+    <row r="3" spans="2:3" ht="24.75" customHeight="1">
+      <c r="B3" s="523" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="525"/>
+      <c r="C3" s="523"/>
     </row>
-    <row r="4" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="526" t="s">
+    <row r="4" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B4" s="524" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="526"/>
+      <c r="C4" s="524"/>
     </row>
-    <row r="5" spans="2:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="526"/>
-      <c r="C5" s="526"/>
+    <row r="5" spans="2:3" ht="28.5" customHeight="1">
+      <c r="B5" s="524"/>
+      <c r="C5" s="524"/>
     </row>
-    <row r="6" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="526" t="s">
+    <row r="6" spans="2:3" ht="33" customHeight="1">
+      <c r="B6" s="524" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="526"/>
+      <c r="C6" s="524"/>
     </row>
-    <row r="7" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="527" t="s">
+    <row r="7" spans="2:3" ht="17.25" customHeight="1">
+      <c r="B7" s="525" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="527"/>
+      <c r="C7" s="525"/>
     </row>
-    <row r="8" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="17.25" customHeight="1">
       <c r="B8" s="105"/>
       <c r="C8" s="105"/>
     </row>
-    <row r="9" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="528" t="s">
+    <row r="9" spans="2:3" ht="18" customHeight="1">
+      <c r="B9" s="526" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="528"/>
+      <c r="C9" s="526"/>
     </row>
-    <row r="10" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="526" t="s">
+    <row r="10" spans="2:3" ht="19.5" customHeight="1">
+      <c r="B10" s="524" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="526"/>
+      <c r="C10" s="524"/>
     </row>
-    <row r="11" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="7.5" customHeight="1">
       <c r="B11" s="106"/>
       <c r="C11" s="106"/>
     </row>
-    <row r="12" spans="2:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="529" t="s">
+    <row r="12" spans="2:3" ht="35.25" customHeight="1">
+      <c r="B12" s="527" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="529"/>
+      <c r="C12" s="527"/>
     </row>
-    <row r="13" spans="2:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="9.75" customHeight="1">
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
     </row>
-    <row r="14" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="521" t="s">
+    <row r="14" spans="2:3" ht="15">
+      <c r="B14" s="522" t="s">
         <v>556</v>
       </c>
-      <c r="C14" s="521"/>
+      <c r="C14" s="522"/>
     </row>
-    <row r="15" spans="2:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="522" t="s">
+    <row r="15" spans="2:3" ht="60" customHeight="1">
+      <c r="B15" s="528" t="s">
         <v>557</v>
       </c>
-      <c r="C15" s="522"/>
+      <c r="C15" s="528"/>
     </row>
-    <row r="16" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="524" t="s">
+    <row r="16" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B16" s="521" t="s">
         <v>558</v>
       </c>
-      <c r="C16" s="524"/>
+      <c r="C16" s="521"/>
     </row>
-    <row r="17" spans="2:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="9.75" customHeight="1">
       <c r="B17" s="107"/>
       <c r="C17" s="107"/>
     </row>
-    <row r="18" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="521" t="s">
+    <row r="18" spans="2:3" ht="15">
+      <c r="B18" s="522" t="s">
         <v>559</v>
       </c>
-      <c r="C18" s="521"/>
+      <c r="C18" s="522"/>
     </row>
-    <row r="19" spans="2:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="522" t="s">
+    <row r="19" spans="2:3" ht="15.4" customHeight="1">
+      <c r="B19" s="528" t="s">
         <v>560</v>
       </c>
-      <c r="C19" s="522"/>
+      <c r="C19" s="528"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="523" t="s">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B20" s="529" t="s">
         <v>561</v>
       </c>
-      <c r="C20" s="523"/>
+      <c r="C20" s="529"/>
     </row>
-    <row r="21" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="8.25" customHeight="1">
       <c r="B21" s="107"/>
       <c r="C21" s="107"/>
     </row>
-    <row r="22" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="521" t="s">
+    <row r="22" spans="2:3" ht="15">
+      <c r="B22" s="522" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="521"/>
+      <c r="C22" s="522"/>
     </row>
-    <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="522" t="s">
+    <row r="23" spans="2:3" ht="15" customHeight="1">
+      <c r="B23" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="522"/>
+      <c r="C23" s="528"/>
     </row>
-    <row r="24" spans="2:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="9.75" customHeight="1">
       <c r="B24" s="108"/>
       <c r="C24" s="108"/>
     </row>
-    <row r="25" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="18" customHeight="1">
       <c r="B25" s="109" t="s">
         <v>20</v>
       </c>
@@ -25798,11 +25937,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="4.5" customHeight="1">
       <c r="B26" s="111"/>
       <c r="C26" s="111"/>
     </row>
-    <row r="27" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" ht="17.25" customHeight="1">
       <c r="B27" s="109" t="s">
         <v>21</v>
       </c>
@@ -25810,19 +25949,19 @@
         <v>698</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" ht="12.75">
       <c r="B28" s="112"/>
       <c r="C28" s="109" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" ht="12.75" customHeight="1">
       <c r="B29" s="112"/>
       <c r="C29" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" ht="12.75">
       <c r="B30" s="112"/>
       <c r="C30" s="113" t="s">
         <v>24</v>
@@ -25830,6 +25969,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -25842,17 +25986,12 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1"/>
-    <hyperlink ref="B7:C7" r:id="rId2" display="http://www.creativecommons.org/licenses/by/3.0/au/"/>
-    <hyperlink ref="B20:C20" r:id="rId3" display="https://www.apra.gov.au/statistics?industry%5B33%5D=33"/>
-    <hyperlink ref="B16:C16" r:id="rId4" display="https://www.apra.gov.au/mysuper-product-heatmap "/>
+    <hyperlink ref="C25" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B7:C7" r:id="rId2" display="http://www.creativecommons.org/licenses/by/3.0/au/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B20:C20" r:id="rId3" display="https://www.apra.gov.au/statistics?industry%5B33%5D=33" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B16:C16" r:id="rId4" display="https://www.apra.gov.au/mysuper-product-heatmap " xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.78740157480314965" bottom="0.78740157480314965" header="0.27559055118110237" footer="0.27559055118110237"/>
@@ -25866,7 +26005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -25878,34 +26017,34 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="91.140625" style="115" customWidth="1"/>
+    <col min="1" max="1" width="91.1328125" style="115" customWidth="1"/>
     <col min="2" max="16384" width="9" style="115"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" customHeight="1">
       <c r="A1" s="114" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="117" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="117" customFormat="1" ht="81.75" customHeight="1">
       <c r="A3" s="116" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="117" customFormat="1" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="117" customFormat="1" ht="234.75" customHeight="1">
       <c r="A4" s="118" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="12.95" customHeight="1"/>
+    <row r="6" spans="1:7" ht="12.95" customHeight="1"/>
+    <row r="7" spans="1:7" ht="12.95" customHeight="1"/>
+    <row r="8" spans="1:7" ht="12.95" customHeight="1"/>
+    <row r="9" spans="1:7" ht="12.95" customHeight="1"/>
+    <row r="10" spans="1:7" ht="12.95" customHeight="1"/>
+    <row r="11" spans="1:7" ht="12.95" customHeight="1">
       <c r="B11" s="119"/>
       <c r="C11" s="119"/>
       <c r="D11" s="119"/>
@@ -25913,40 +26052,40 @@
       <c r="F11" s="119"/>
       <c r="G11" s="119"/>
     </row>
-    <row r="12" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" ht="12.95" customHeight="1"/>
+    <row r="13" spans="1:7" ht="12.95" customHeight="1"/>
+    <row r="14" spans="1:7" ht="12.95" customHeight="1"/>
+    <row r="15" spans="1:7" ht="12.95" customHeight="1"/>
+    <row r="16" spans="1:7" ht="12.95" customHeight="1"/>
+    <row r="17" ht="12.95" customHeight="1"/>
+    <row r="18" ht="12.95" customHeight="1"/>
+    <row r="19" ht="12.95" customHeight="1"/>
+    <row r="20" ht="12.95" customHeight="1"/>
+    <row r="21" ht="12.95" customHeight="1"/>
+    <row r="22" ht="12.95" customHeight="1"/>
+    <row r="23" ht="12.95" customHeight="1"/>
+    <row r="24" ht="12.95" customHeight="1"/>
+    <row r="25" ht="12.95" customHeight="1"/>
+    <row r="26" ht="12.95" customHeight="1"/>
+    <row r="27" ht="12.95" customHeight="1"/>
+    <row r="28" ht="12.95" customHeight="1"/>
+    <row r="29" ht="12.95" customHeight="1"/>
+    <row r="30" ht="12.95" customHeight="1"/>
+    <row r="31" ht="12.95" customHeight="1"/>
+    <row r="32" ht="12.95" customHeight="1"/>
+    <row r="33" ht="12.95" customHeight="1"/>
+    <row r="34" ht="12.95" customHeight="1"/>
+    <row r="35" ht="12.95" customHeight="1"/>
+    <row r="36" ht="12.95" customHeight="1"/>
+    <row r="37" ht="12.95" customHeight="1"/>
+    <row r="38" ht="12.95" customHeight="1"/>
+    <row r="39" ht="12.95" customHeight="1"/>
+    <row r="40" ht="12.95" customHeight="1"/>
+    <row r="41" ht="12.95" customHeight="1"/>
+    <row r="42" ht="12.95" customHeight="1"/>
+    <row r="43" ht="12.95" customHeight="1"/>
+    <row r="44" ht="12.95" customHeight="1"/>
+    <row r="45" ht="12.95" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -25957,40 +26096,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AL36"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="2" customWidth="1"/>
-    <col min="4" max="6" width="20.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="11" width="13.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="13.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="13.7109375" style="2" customWidth="1"/>
-    <col min="15" max="20" width="13.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="13.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="13.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="13.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="13.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="13.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="29" max="30" width="13.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="13.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="13.7109375" style="2" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="13.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="35" max="38" width="10.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="15.265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.86328125" style="2" customWidth="1"/>
+    <col min="4" max="6" width="20.73046875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.73046875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.73046875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="11" width="13.73046875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="13.73046875" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="13.73046875" style="2" customWidth="1"/>
+    <col min="15" max="20" width="13.73046875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="13.73046875" style="2" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.73046875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="13.73046875" style="2" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="13.73046875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="13.73046875" style="2" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.73046875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="13.73046875" style="2" customWidth="1" collapsed="1"/>
+    <col min="29" max="30" width="13.73046875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="13.73046875" style="2" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.73046875" style="2" customWidth="1"/>
+    <col min="33" max="33" width="13.73046875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="13.73046875" style="2" customWidth="1" collapsed="1"/>
+    <col min="35" max="38" width="10.73046875" style="2" customWidth="1"/>
     <col min="39" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="18" customHeight="1">
       <c r="A1" s="20"/>
       <c r="C1" s="21" t="s">
         <v>630</v>
@@ -26038,7 +26177,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="35.65" customHeight="1">
       <c r="A2" s="2"/>
       <c r="C2" s="21" t="s">
         <v>632</v>
@@ -26086,7 +26225,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="18">
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
@@ -26117,42 +26256,42 @@
       <c r="AF3" s="22"/>
       <c r="AG3" s="22"/>
     </row>
-    <row r="4" spans="1:38" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="535" t="s">
+    <row r="4" spans="1:38" ht="35.1" customHeight="1">
+      <c r="C4" s="530" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="535"/>
-      <c r="E4" s="535"/>
-      <c r="F4" s="535"/>
-      <c r="G4" s="535"/>
-      <c r="H4" s="535"/>
-      <c r="I4" s="535"/>
-      <c r="J4" s="535"/>
-      <c r="K4" s="535"/>
-      <c r="L4" s="535"/>
-      <c r="M4" s="535"/>
-      <c r="N4" s="535"/>
-      <c r="O4" s="535"/>
-      <c r="P4" s="535"/>
-      <c r="Q4" s="535"/>
-      <c r="R4" s="535"/>
-      <c r="S4" s="535"/>
-      <c r="T4" s="535"/>
-      <c r="U4" s="535"/>
-      <c r="V4" s="535"/>
-      <c r="W4" s="535"/>
-      <c r="X4" s="535"/>
-      <c r="Y4" s="535"/>
-      <c r="Z4" s="535"/>
-      <c r="AA4" s="535"/>
-      <c r="AB4" s="535"/>
-      <c r="AC4" s="535"/>
-      <c r="AD4" s="535"/>
-      <c r="AE4" s="535"/>
-      <c r="AF4" s="535"/>
-      <c r="AG4" s="535"/>
+      <c r="D4" s="530"/>
+      <c r="E4" s="530"/>
+      <c r="F4" s="530"/>
+      <c r="G4" s="530"/>
+      <c r="H4" s="530"/>
+      <c r="I4" s="530"/>
+      <c r="J4" s="530"/>
+      <c r="K4" s="530"/>
+      <c r="L4" s="530"/>
+      <c r="M4" s="530"/>
+      <c r="N4" s="530"/>
+      <c r="O4" s="530"/>
+      <c r="P4" s="530"/>
+      <c r="Q4" s="530"/>
+      <c r="R4" s="530"/>
+      <c r="S4" s="530"/>
+      <c r="T4" s="530"/>
+      <c r="U4" s="530"/>
+      <c r="V4" s="530"/>
+      <c r="W4" s="530"/>
+      <c r="X4" s="530"/>
+      <c r="Y4" s="530"/>
+      <c r="Z4" s="530"/>
+      <c r="AA4" s="530"/>
+      <c r="AB4" s="530"/>
+      <c r="AC4" s="530"/>
+      <c r="AD4" s="530"/>
+      <c r="AE4" s="530"/>
+      <c r="AF4" s="530"/>
+      <c r="AG4" s="530"/>
     </row>
-    <row r="5" spans="1:38" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="25.15" customHeight="1">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -26162,75 +26301,75 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="536" t="s">
+      <c r="M5" s="531" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="536"/>
-      <c r="O5" s="536"/>
-      <c r="P5" s="536"/>
-      <c r="Q5" s="536"/>
-      <c r="R5" s="536"/>
-      <c r="S5" s="536"/>
-      <c r="T5" s="536"/>
-      <c r="U5" s="536"/>
-      <c r="V5" s="536"/>
-      <c r="W5" s="536"/>
-      <c r="X5" s="536"/>
-      <c r="Y5" s="536"/>
-      <c r="Z5" s="536"/>
-      <c r="AA5" s="536"/>
-      <c r="AB5" s="536"/>
-      <c r="AC5" s="536"/>
-      <c r="AD5" s="536"/>
-      <c r="AE5" s="536" t="s">
+      <c r="N5" s="531"/>
+      <c r="O5" s="531"/>
+      <c r="P5" s="531"/>
+      <c r="Q5" s="531"/>
+      <c r="R5" s="531"/>
+      <c r="S5" s="531"/>
+      <c r="T5" s="531"/>
+      <c r="U5" s="531"/>
+      <c r="V5" s="531"/>
+      <c r="W5" s="531"/>
+      <c r="X5" s="531"/>
+      <c r="Y5" s="531"/>
+      <c r="Z5" s="531"/>
+      <c r="AA5" s="531"/>
+      <c r="AB5" s="531"/>
+      <c r="AC5" s="531"/>
+      <c r="AD5" s="531"/>
+      <c r="AE5" s="531" t="s">
         <v>7</v>
       </c>
-      <c r="AF5" s="536"/>
-      <c r="AG5" s="536"/>
+      <c r="AF5" s="531"/>
+      <c r="AG5" s="531"/>
       <c r="AH5" s="3"/>
     </row>
-    <row r="6" spans="1:38" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" ht="30" customHeight="1" thickBot="1">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="537" t="s">
+      <c r="H6" s="532" t="s">
         <v>628</v>
       </c>
-      <c r="I6" s="537"/>
-      <c r="J6" s="537"/>
-      <c r="K6" s="537"/>
-      <c r="L6" s="537"/>
-      <c r="M6" s="538" t="s">
+      <c r="I6" s="532"/>
+      <c r="J6" s="532"/>
+      <c r="K6" s="532"/>
+      <c r="L6" s="532"/>
+      <c r="M6" s="533" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="538"/>
-      <c r="O6" s="538"/>
-      <c r="P6" s="538"/>
-      <c r="Q6" s="538"/>
-      <c r="R6" s="538"/>
-      <c r="S6" s="538"/>
-      <c r="T6" s="538"/>
-      <c r="U6" s="538" t="s">
+      <c r="N6" s="533"/>
+      <c r="O6" s="533"/>
+      <c r="P6" s="533"/>
+      <c r="Q6" s="533"/>
+      <c r="R6" s="533"/>
+      <c r="S6" s="533"/>
+      <c r="T6" s="533"/>
+      <c r="U6" s="533" t="s">
         <v>626</v>
       </c>
-      <c r="V6" s="538"/>
-      <c r="W6" s="538"/>
-      <c r="X6" s="538"/>
-      <c r="Y6" s="538"/>
-      <c r="Z6" s="538"/>
-      <c r="AA6" s="538"/>
-      <c r="AB6" s="538"/>
-      <c r="AC6" s="538"/>
-      <c r="AD6" s="538"/>
-      <c r="AE6" s="537" t="s">
+      <c r="V6" s="533"/>
+      <c r="W6" s="533"/>
+      <c r="X6" s="533"/>
+      <c r="Y6" s="533"/>
+      <c r="Z6" s="533"/>
+      <c r="AA6" s="533"/>
+      <c r="AB6" s="533"/>
+      <c r="AC6" s="533"/>
+      <c r="AD6" s="533"/>
+      <c r="AE6" s="532" t="s">
         <v>33</v>
       </c>
-      <c r="AF6" s="537"/>
-      <c r="AG6" s="537"/>
+      <c r="AF6" s="532"/>
+      <c r="AG6" s="532"/>
       <c r="AH6" s="3"/>
     </row>
-    <row r="7" spans="1:38" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="42">
       <c r="B7" s="24" t="s">
         <v>683</v>
       </c>
@@ -26329,7 +26468,7 @@
       </c>
       <c r="AH7" s="1"/>
     </row>
-    <row r="8" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38">
       <c r="C8" s="10"/>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
@@ -26363,7 +26502,7 @@
       <c r="AG8" s="31"/>
       <c r="AH8" s="1"/>
     </row>
-    <row r="9" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="32"/>
       <c r="C9" s="102">
         <v>1.0009999999999999</v>
@@ -26419,7 +26558,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="33" customFormat="1" ht="24.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" s="33" customFormat="1" ht="24.95" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A10" s="32"/>
       <c r="C10" s="102">
         <v>1.002</v>
@@ -26503,7 +26642,7 @@
       <c r="AF10" s="45"/>
       <c r="AG10" s="45"/>
     </row>
-    <row r="11" spans="1:38" s="33" customFormat="1" ht="24.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" s="33" customFormat="1" ht="24.95" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A11" s="32"/>
       <c r="C11" s="102">
         <v>1.0029999999999999</v>
@@ -26587,7 +26726,7 @@
       <c r="AF11" s="45"/>
       <c r="AG11" s="45"/>
     </row>
-    <row r="12" spans="1:38" s="33" customFormat="1" ht="24.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" s="33" customFormat="1" ht="24.95" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A12" s="32"/>
       <c r="C12" s="102">
         <v>1.004</v>
@@ -26671,7 +26810,7 @@
       <c r="AF12" s="45"/>
       <c r="AG12" s="45"/>
     </row>
-    <row r="13" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1" collapsed="1">
       <c r="A13" s="55" t="s">
         <v>648</v>
       </c>
@@ -26769,14 +26908,14 @@
       <c r="AG13" s="45">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AI13" s="530" t="s">
+      <c r="AI13" s="534" t="s">
         <v>653</v>
       </c>
-      <c r="AJ13" s="530"/>
-      <c r="AK13" s="530"/>
-      <c r="AL13" s="530"/>
+      <c r="AJ13" s="534"/>
+      <c r="AK13" s="534"/>
+      <c r="AL13" s="534"/>
     </row>
-    <row r="14" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="32"/>
       <c r="C14" s="102">
         <v>1.006</v>
@@ -26869,12 +27008,12 @@
       <c r="AG14" s="38">
         <v>-0.01</v>
       </c>
-      <c r="AI14" s="530"/>
-      <c r="AJ14" s="530"/>
-      <c r="AK14" s="530"/>
-      <c r="AL14" s="530"/>
+      <c r="AI14" s="534"/>
+      <c r="AJ14" s="534"/>
+      <c r="AK14" s="534"/>
+      <c r="AL14" s="534"/>
     </row>
-    <row r="15" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="32"/>
       <c r="C15" s="102">
         <v>1.0069999999999999</v>
@@ -26968,7 +27107,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="A16" s="32"/>
       <c r="C16" s="102">
         <v>1.008</v>
@@ -27062,7 +27201,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="17" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="32"/>
       <c r="C17" s="102">
         <v>1.0089999999999999</v>
@@ -27156,7 +27295,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="A18" s="32"/>
       <c r="C18" s="102">
         <v>1.01</v>
@@ -27250,7 +27389,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="A19" s="32"/>
       <c r="C19" s="102">
         <v>1.0109999999999999</v>
@@ -27344,7 +27483,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="20" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="A20" s="32"/>
       <c r="C20" s="102">
         <v>1.012</v>
@@ -27438,7 +27577,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="A21" s="32"/>
       <c r="C21" s="102">
         <v>1.0129999999999999</v>
@@ -27494,7 +27633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:38" s="33" customFormat="1" ht="24.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" s="33" customFormat="1" ht="24.95" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A22" s="32"/>
       <c r="C22" s="102">
         <v>1.014</v>
@@ -27578,7 +27717,7 @@
       <c r="AF22" s="45"/>
       <c r="AG22" s="45"/>
     </row>
-    <row r="23" spans="1:38" s="33" customFormat="1" ht="24.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" s="33" customFormat="1" ht="24.95" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A23" s="32"/>
       <c r="C23" s="102">
         <v>1.0149999999999999</v>
@@ -27662,7 +27801,7 @@
       <c r="AF23" s="45"/>
       <c r="AG23" s="45"/>
     </row>
-    <row r="24" spans="1:38" s="33" customFormat="1" ht="24.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" s="33" customFormat="1" ht="24.95" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A24" s="32"/>
       <c r="C24" s="102">
         <v>1.016</v>
@@ -27746,7 +27885,7 @@
       <c r="AF24" s="45"/>
       <c r="AG24" s="45"/>
     </row>
-    <row r="25" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1" collapsed="1">
       <c r="A25" s="55" t="s">
         <v>648</v>
       </c>
@@ -27763,35 +27902,35 @@
       <c r="J25" s="94"/>
       <c r="K25" s="93"/>
       <c r="L25" s="94"/>
-      <c r="M25" s="531"/>
-      <c r="N25" s="531"/>
-      <c r="O25" s="531"/>
-      <c r="P25" s="531"/>
-      <c r="Q25" s="531"/>
-      <c r="R25" s="531"/>
-      <c r="S25" s="531"/>
-      <c r="T25" s="531"/>
-      <c r="U25" s="531"/>
-      <c r="V25" s="531"/>
-      <c r="W25" s="531"/>
-      <c r="X25" s="531"/>
-      <c r="Y25" s="531"/>
-      <c r="Z25" s="531"/>
-      <c r="AA25" s="531"/>
-      <c r="AB25" s="531"/>
-      <c r="AC25" s="531"/>
-      <c r="AD25" s="531"/>
+      <c r="M25" s="535"/>
+      <c r="N25" s="535"/>
+      <c r="O25" s="535"/>
+      <c r="P25" s="535"/>
+      <c r="Q25" s="535"/>
+      <c r="R25" s="535"/>
+      <c r="S25" s="535"/>
+      <c r="T25" s="535"/>
+      <c r="U25" s="535"/>
+      <c r="V25" s="535"/>
+      <c r="W25" s="535"/>
+      <c r="X25" s="535"/>
+      <c r="Y25" s="535"/>
+      <c r="Z25" s="535"/>
+      <c r="AA25" s="535"/>
+      <c r="AB25" s="535"/>
+      <c r="AC25" s="535"/>
+      <c r="AD25" s="535"/>
       <c r="AE25" s="95"/>
       <c r="AF25" s="95"/>
       <c r="AG25" s="95"/>
-      <c r="AI25" s="530" t="s">
+      <c r="AI25" s="534" t="s">
         <v>681</v>
       </c>
-      <c r="AJ25" s="530"/>
-      <c r="AK25" s="530"/>
-      <c r="AL25" s="530"/>
+      <c r="AJ25" s="534"/>
+      <c r="AK25" s="534"/>
+      <c r="AL25" s="534"/>
     </row>
-    <row r="26" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" s="33" customFormat="1" ht="24.95" customHeight="1">
       <c r="D26" s="91"/>
       <c r="E26" s="91"/>
       <c r="F26" s="91"/>
@@ -27822,336 +27961,341 @@
       <c r="AE26" s="98"/>
       <c r="AF26" s="98"/>
       <c r="AG26" s="98"/>
-      <c r="AI26" s="530"/>
-      <c r="AJ26" s="530"/>
-      <c r="AK26" s="530"/>
-      <c r="AL26" s="530"/>
+      <c r="AI26" s="534"/>
+      <c r="AJ26" s="534"/>
+      <c r="AK26" s="534"/>
+      <c r="AL26" s="534"/>
     </row>
-    <row r="27" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="24.95" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="D27" s="532" t="s">
+      <c r="D27" s="536" t="s">
         <v>682</v>
       </c>
-      <c r="E27" s="533"/>
-      <c r="F27" s="533"/>
-      <c r="G27" s="533"/>
-      <c r="H27" s="533"/>
-      <c r="I27" s="533"/>
-      <c r="J27" s="533"/>
-      <c r="K27" s="533"/>
-      <c r="L27" s="533"/>
-      <c r="M27" s="533"/>
-      <c r="N27" s="533"/>
-      <c r="O27" s="533"/>
-      <c r="P27" s="533"/>
-      <c r="Q27" s="533"/>
-      <c r="R27" s="533"/>
-      <c r="S27" s="533"/>
-      <c r="T27" s="533"/>
-      <c r="U27" s="533"/>
-      <c r="V27" s="533"/>
-      <c r="W27" s="533"/>
-      <c r="X27" s="533"/>
-      <c r="Y27" s="533"/>
-      <c r="Z27" s="533"/>
-      <c r="AA27" s="533"/>
-      <c r="AB27" s="533"/>
-      <c r="AC27" s="533"/>
-      <c r="AD27" s="533"/>
-      <c r="AE27" s="533"/>
-      <c r="AF27" s="533"/>
+      <c r="E27" s="537"/>
+      <c r="F27" s="537"/>
+      <c r="G27" s="537"/>
+      <c r="H27" s="537"/>
+      <c r="I27" s="537"/>
+      <c r="J27" s="537"/>
+      <c r="K27" s="537"/>
+      <c r="L27" s="537"/>
+      <c r="M27" s="537"/>
+      <c r="N27" s="537"/>
+      <c r="O27" s="537"/>
+      <c r="P27" s="537"/>
+      <c r="Q27" s="537"/>
+      <c r="R27" s="537"/>
+      <c r="S27" s="537"/>
+      <c r="T27" s="537"/>
+      <c r="U27" s="537"/>
+      <c r="V27" s="537"/>
+      <c r="W27" s="537"/>
+      <c r="X27" s="537"/>
+      <c r="Y27" s="537"/>
+      <c r="Z27" s="537"/>
+      <c r="AA27" s="537"/>
+      <c r="AB27" s="537"/>
+      <c r="AC27" s="537"/>
+      <c r="AD27" s="537"/>
+      <c r="AE27" s="537"/>
+      <c r="AF27" s="537"/>
       <c r="AG27" s="100"/>
-      <c r="AI27" s="530"/>
-      <c r="AJ27" s="530"/>
-      <c r="AK27" s="530"/>
-      <c r="AL27" s="530"/>
+      <c r="AI27" s="534"/>
+      <c r="AJ27" s="534"/>
+      <c r="AK27" s="534"/>
+      <c r="AL27" s="534"/>
     </row>
-    <row r="28" spans="1:38" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="534"/>
-      <c r="E28" s="534"/>
-      <c r="F28" s="534"/>
-      <c r="G28" s="534"/>
-      <c r="H28" s="534"/>
-      <c r="I28" s="534"/>
-      <c r="J28" s="534"/>
-      <c r="K28" s="534"/>
-      <c r="L28" s="534"/>
-      <c r="M28" s="534"/>
-      <c r="N28" s="534"/>
-      <c r="O28" s="534"/>
-      <c r="P28" s="534"/>
-      <c r="Q28" s="534"/>
-      <c r="R28" s="534"/>
-      <c r="S28" s="534"/>
-      <c r="T28" s="534"/>
-      <c r="U28" s="534"/>
-      <c r="V28" s="534"/>
-      <c r="W28" s="534"/>
-      <c r="X28" s="534"/>
-      <c r="Y28" s="534"/>
-      <c r="Z28" s="534"/>
-      <c r="AA28" s="534"/>
-      <c r="AB28" s="534"/>
-      <c r="AC28" s="534"/>
-      <c r="AD28" s="534"/>
-      <c r="AE28" s="534"/>
-      <c r="AF28" s="534"/>
-      <c r="AI28" s="530"/>
-      <c r="AJ28" s="530"/>
-      <c r="AK28" s="530"/>
-      <c r="AL28" s="530"/>
+    <row r="28" spans="1:38" ht="24.95" customHeight="1">
+      <c r="D28" s="538"/>
+      <c r="E28" s="538"/>
+      <c r="F28" s="538"/>
+      <c r="G28" s="538"/>
+      <c r="H28" s="538"/>
+      <c r="I28" s="538"/>
+      <c r="J28" s="538"/>
+      <c r="K28" s="538"/>
+      <c r="L28" s="538"/>
+      <c r="M28" s="538"/>
+      <c r="N28" s="538"/>
+      <c r="O28" s="538"/>
+      <c r="P28" s="538"/>
+      <c r="Q28" s="538"/>
+      <c r="R28" s="538"/>
+      <c r="S28" s="538"/>
+      <c r="T28" s="538"/>
+      <c r="U28" s="538"/>
+      <c r="V28" s="538"/>
+      <c r="W28" s="538"/>
+      <c r="X28" s="538"/>
+      <c r="Y28" s="538"/>
+      <c r="Z28" s="538"/>
+      <c r="AA28" s="538"/>
+      <c r="AB28" s="538"/>
+      <c r="AC28" s="538"/>
+      <c r="AD28" s="538"/>
+      <c r="AE28" s="538"/>
+      <c r="AF28" s="538"/>
+      <c r="AI28" s="534"/>
+      <c r="AJ28" s="534"/>
+      <c r="AK28" s="534"/>
+      <c r="AL28" s="534"/>
     </row>
-    <row r="29" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="534"/>
-      <c r="E29" s="534"/>
-      <c r="F29" s="534"/>
-      <c r="G29" s="534"/>
-      <c r="H29" s="534"/>
-      <c r="I29" s="534"/>
-      <c r="J29" s="534"/>
-      <c r="K29" s="534"/>
-      <c r="L29" s="534"/>
-      <c r="M29" s="534"/>
-      <c r="N29" s="534"/>
-      <c r="O29" s="534"/>
-      <c r="P29" s="534"/>
-      <c r="Q29" s="534"/>
-      <c r="R29" s="534"/>
-      <c r="S29" s="534"/>
-      <c r="T29" s="534"/>
-      <c r="U29" s="534"/>
-      <c r="V29" s="534"/>
-      <c r="W29" s="534"/>
-      <c r="X29" s="534"/>
-      <c r="Y29" s="534"/>
-      <c r="Z29" s="534"/>
-      <c r="AA29" s="534"/>
-      <c r="AB29" s="534"/>
-      <c r="AC29" s="534"/>
-      <c r="AD29" s="534"/>
-      <c r="AE29" s="534"/>
-      <c r="AF29" s="534"/>
+    <row r="29" spans="1:38" ht="30" customHeight="1">
+      <c r="D29" s="538"/>
+      <c r="E29" s="538"/>
+      <c r="F29" s="538"/>
+      <c r="G29" s="538"/>
+      <c r="H29" s="538"/>
+      <c r="I29" s="538"/>
+      <c r="J29" s="538"/>
+      <c r="K29" s="538"/>
+      <c r="L29" s="538"/>
+      <c r="M29" s="538"/>
+      <c r="N29" s="538"/>
+      <c r="O29" s="538"/>
+      <c r="P29" s="538"/>
+      <c r="Q29" s="538"/>
+      <c r="R29" s="538"/>
+      <c r="S29" s="538"/>
+      <c r="T29" s="538"/>
+      <c r="U29" s="538"/>
+      <c r="V29" s="538"/>
+      <c r="W29" s="538"/>
+      <c r="X29" s="538"/>
+      <c r="Y29" s="538"/>
+      <c r="Z29" s="538"/>
+      <c r="AA29" s="538"/>
+      <c r="AB29" s="538"/>
+      <c r="AC29" s="538"/>
+      <c r="AD29" s="538"/>
+      <c r="AE29" s="538"/>
+      <c r="AF29" s="538"/>
     </row>
-    <row r="30" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="534"/>
-      <c r="E30" s="534"/>
-      <c r="F30" s="534"/>
-      <c r="G30" s="534"/>
-      <c r="H30" s="534"/>
-      <c r="I30" s="534"/>
-      <c r="J30" s="534"/>
-      <c r="K30" s="534"/>
-      <c r="L30" s="534"/>
-      <c r="M30" s="534"/>
-      <c r="N30" s="534"/>
-      <c r="O30" s="534"/>
-      <c r="P30" s="534"/>
-      <c r="Q30" s="534"/>
-      <c r="R30" s="534"/>
-      <c r="S30" s="534"/>
-      <c r="T30" s="534"/>
-      <c r="U30" s="534"/>
-      <c r="V30" s="534"/>
-      <c r="W30" s="534"/>
-      <c r="X30" s="534"/>
-      <c r="Y30" s="534"/>
-      <c r="Z30" s="534"/>
-      <c r="AA30" s="534"/>
-      <c r="AB30" s="534"/>
-      <c r="AC30" s="534"/>
-      <c r="AD30" s="534"/>
-      <c r="AE30" s="534"/>
-      <c r="AF30" s="534"/>
+    <row r="30" spans="1:38" ht="30" customHeight="1">
+      <c r="D30" s="538"/>
+      <c r="E30" s="538"/>
+      <c r="F30" s="538"/>
+      <c r="G30" s="538"/>
+      <c r="H30" s="538"/>
+      <c r="I30" s="538"/>
+      <c r="J30" s="538"/>
+      <c r="K30" s="538"/>
+      <c r="L30" s="538"/>
+      <c r="M30" s="538"/>
+      <c r="N30" s="538"/>
+      <c r="O30" s="538"/>
+      <c r="P30" s="538"/>
+      <c r="Q30" s="538"/>
+      <c r="R30" s="538"/>
+      <c r="S30" s="538"/>
+      <c r="T30" s="538"/>
+      <c r="U30" s="538"/>
+      <c r="V30" s="538"/>
+      <c r="W30" s="538"/>
+      <c r="X30" s="538"/>
+      <c r="Y30" s="538"/>
+      <c r="Z30" s="538"/>
+      <c r="AA30" s="538"/>
+      <c r="AB30" s="538"/>
+      <c r="AC30" s="538"/>
+      <c r="AD30" s="538"/>
+      <c r="AE30" s="538"/>
+      <c r="AF30" s="538"/>
     </row>
-    <row r="31" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="534"/>
-      <c r="E31" s="534"/>
-      <c r="F31" s="534"/>
-      <c r="G31" s="534"/>
-      <c r="H31" s="534"/>
-      <c r="I31" s="534"/>
-      <c r="J31" s="534"/>
-      <c r="K31" s="534"/>
-      <c r="L31" s="534"/>
-      <c r="M31" s="534"/>
-      <c r="N31" s="534"/>
-      <c r="O31" s="534"/>
-      <c r="P31" s="534"/>
-      <c r="Q31" s="534"/>
-      <c r="R31" s="534"/>
-      <c r="S31" s="534"/>
-      <c r="T31" s="534"/>
-      <c r="U31" s="534"/>
-      <c r="V31" s="534"/>
-      <c r="W31" s="534"/>
-      <c r="X31" s="534"/>
-      <c r="Y31" s="534"/>
-      <c r="Z31" s="534"/>
-      <c r="AA31" s="534"/>
-      <c r="AB31" s="534"/>
-      <c r="AC31" s="534"/>
-      <c r="AD31" s="534"/>
-      <c r="AE31" s="534"/>
-      <c r="AF31" s="534"/>
+    <row r="31" spans="1:38" ht="30" customHeight="1">
+      <c r="D31" s="538"/>
+      <c r="E31" s="538"/>
+      <c r="F31" s="538"/>
+      <c r="G31" s="538"/>
+      <c r="H31" s="538"/>
+      <c r="I31" s="538"/>
+      <c r="J31" s="538"/>
+      <c r="K31" s="538"/>
+      <c r="L31" s="538"/>
+      <c r="M31" s="538"/>
+      <c r="N31" s="538"/>
+      <c r="O31" s="538"/>
+      <c r="P31" s="538"/>
+      <c r="Q31" s="538"/>
+      <c r="R31" s="538"/>
+      <c r="S31" s="538"/>
+      <c r="T31" s="538"/>
+      <c r="U31" s="538"/>
+      <c r="V31" s="538"/>
+      <c r="W31" s="538"/>
+      <c r="X31" s="538"/>
+      <c r="Y31" s="538"/>
+      <c r="Z31" s="538"/>
+      <c r="AA31" s="538"/>
+      <c r="AB31" s="538"/>
+      <c r="AC31" s="538"/>
+      <c r="AD31" s="538"/>
+      <c r="AE31" s="538"/>
+      <c r="AF31" s="538"/>
     </row>
-    <row r="32" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="534"/>
-      <c r="E32" s="534"/>
-      <c r="F32" s="534"/>
-      <c r="G32" s="534"/>
-      <c r="H32" s="534"/>
-      <c r="I32" s="534"/>
-      <c r="J32" s="534"/>
-      <c r="K32" s="534"/>
-      <c r="L32" s="534"/>
-      <c r="M32" s="534"/>
-      <c r="N32" s="534"/>
-      <c r="O32" s="534"/>
-      <c r="P32" s="534"/>
-      <c r="Q32" s="534"/>
-      <c r="R32" s="534"/>
-      <c r="S32" s="534"/>
-      <c r="T32" s="534"/>
-      <c r="U32" s="534"/>
-      <c r="V32" s="534"/>
-      <c r="W32" s="534"/>
-      <c r="X32" s="534"/>
-      <c r="Y32" s="534"/>
-      <c r="Z32" s="534"/>
-      <c r="AA32" s="534"/>
-      <c r="AB32" s="534"/>
-      <c r="AC32" s="534"/>
-      <c r="AD32" s="534"/>
-      <c r="AE32" s="534"/>
-      <c r="AF32" s="534"/>
+    <row r="32" spans="1:38" ht="30" customHeight="1">
+      <c r="D32" s="538"/>
+      <c r="E32" s="538"/>
+      <c r="F32" s="538"/>
+      <c r="G32" s="538"/>
+      <c r="H32" s="538"/>
+      <c r="I32" s="538"/>
+      <c r="J32" s="538"/>
+      <c r="K32" s="538"/>
+      <c r="L32" s="538"/>
+      <c r="M32" s="538"/>
+      <c r="N32" s="538"/>
+      <c r="O32" s="538"/>
+      <c r="P32" s="538"/>
+      <c r="Q32" s="538"/>
+      <c r="R32" s="538"/>
+      <c r="S32" s="538"/>
+      <c r="T32" s="538"/>
+      <c r="U32" s="538"/>
+      <c r="V32" s="538"/>
+      <c r="W32" s="538"/>
+      <c r="X32" s="538"/>
+      <c r="Y32" s="538"/>
+      <c r="Z32" s="538"/>
+      <c r="AA32" s="538"/>
+      <c r="AB32" s="538"/>
+      <c r="AC32" s="538"/>
+      <c r="AD32" s="538"/>
+      <c r="AE32" s="538"/>
+      <c r="AF32" s="538"/>
     </row>
-    <row r="33" spans="4:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="534"/>
-      <c r="E33" s="534"/>
-      <c r="F33" s="534"/>
-      <c r="G33" s="534"/>
-      <c r="H33" s="534"/>
-      <c r="I33" s="534"/>
-      <c r="J33" s="534"/>
-      <c r="K33" s="534"/>
-      <c r="L33" s="534"/>
-      <c r="M33" s="534"/>
-      <c r="N33" s="534"/>
-      <c r="O33" s="534"/>
-      <c r="P33" s="534"/>
-      <c r="Q33" s="534"/>
-      <c r="R33" s="534"/>
-      <c r="S33" s="534"/>
-      <c r="T33" s="534"/>
-      <c r="U33" s="534"/>
-      <c r="V33" s="534"/>
-      <c r="W33" s="534"/>
-      <c r="X33" s="534"/>
-      <c r="Y33" s="534"/>
-      <c r="Z33" s="534"/>
-      <c r="AA33" s="534"/>
-      <c r="AB33" s="534"/>
-      <c r="AC33" s="534"/>
-      <c r="AD33" s="534"/>
-      <c r="AE33" s="534"/>
-      <c r="AF33" s="534"/>
+    <row r="33" spans="4:32" ht="30" customHeight="1">
+      <c r="D33" s="538"/>
+      <c r="E33" s="538"/>
+      <c r="F33" s="538"/>
+      <c r="G33" s="538"/>
+      <c r="H33" s="538"/>
+      <c r="I33" s="538"/>
+      <c r="J33" s="538"/>
+      <c r="K33" s="538"/>
+      <c r="L33" s="538"/>
+      <c r="M33" s="538"/>
+      <c r="N33" s="538"/>
+      <c r="O33" s="538"/>
+      <c r="P33" s="538"/>
+      <c r="Q33" s="538"/>
+      <c r="R33" s="538"/>
+      <c r="S33" s="538"/>
+      <c r="T33" s="538"/>
+      <c r="U33" s="538"/>
+      <c r="V33" s="538"/>
+      <c r="W33" s="538"/>
+      <c r="X33" s="538"/>
+      <c r="Y33" s="538"/>
+      <c r="Z33" s="538"/>
+      <c r="AA33" s="538"/>
+      <c r="AB33" s="538"/>
+      <c r="AC33" s="538"/>
+      <c r="AD33" s="538"/>
+      <c r="AE33" s="538"/>
+      <c r="AF33" s="538"/>
     </row>
-    <row r="34" spans="4:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="534"/>
-      <c r="E34" s="534"/>
-      <c r="F34" s="534"/>
-      <c r="G34" s="534"/>
-      <c r="H34" s="534"/>
-      <c r="I34" s="534"/>
-      <c r="J34" s="534"/>
-      <c r="K34" s="534"/>
-      <c r="L34" s="534"/>
-      <c r="M34" s="534"/>
-      <c r="N34" s="534"/>
-      <c r="O34" s="534"/>
-      <c r="P34" s="534"/>
-      <c r="Q34" s="534"/>
-      <c r="R34" s="534"/>
-      <c r="S34" s="534"/>
-      <c r="T34" s="534"/>
-      <c r="U34" s="534"/>
-      <c r="V34" s="534"/>
-      <c r="W34" s="534"/>
-      <c r="X34" s="534"/>
-      <c r="Y34" s="534"/>
-      <c r="Z34" s="534"/>
-      <c r="AA34" s="534"/>
-      <c r="AB34" s="534"/>
-      <c r="AC34" s="534"/>
-      <c r="AD34" s="534"/>
-      <c r="AE34" s="534"/>
-      <c r="AF34" s="534"/>
+    <row r="34" spans="4:32" ht="30" customHeight="1">
+      <c r="D34" s="538"/>
+      <c r="E34" s="538"/>
+      <c r="F34" s="538"/>
+      <c r="G34" s="538"/>
+      <c r="H34" s="538"/>
+      <c r="I34" s="538"/>
+      <c r="J34" s="538"/>
+      <c r="K34" s="538"/>
+      <c r="L34" s="538"/>
+      <c r="M34" s="538"/>
+      <c r="N34" s="538"/>
+      <c r="O34" s="538"/>
+      <c r="P34" s="538"/>
+      <c r="Q34" s="538"/>
+      <c r="R34" s="538"/>
+      <c r="S34" s="538"/>
+      <c r="T34" s="538"/>
+      <c r="U34" s="538"/>
+      <c r="V34" s="538"/>
+      <c r="W34" s="538"/>
+      <c r="X34" s="538"/>
+      <c r="Y34" s="538"/>
+      <c r="Z34" s="538"/>
+      <c r="AA34" s="538"/>
+      <c r="AB34" s="538"/>
+      <c r="AC34" s="538"/>
+      <c r="AD34" s="538"/>
+      <c r="AE34" s="538"/>
+      <c r="AF34" s="538"/>
     </row>
-    <row r="35" spans="4:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="534"/>
-      <c r="E35" s="534"/>
-      <c r="F35" s="534"/>
-      <c r="G35" s="534"/>
-      <c r="H35" s="534"/>
-      <c r="I35" s="534"/>
-      <c r="J35" s="534"/>
-      <c r="K35" s="534"/>
-      <c r="L35" s="534"/>
-      <c r="M35" s="534"/>
-      <c r="N35" s="534"/>
-      <c r="O35" s="534"/>
-      <c r="P35" s="534"/>
-      <c r="Q35" s="534"/>
-      <c r="R35" s="534"/>
-      <c r="S35" s="534"/>
-      <c r="T35" s="534"/>
-      <c r="U35" s="534"/>
-      <c r="V35" s="534"/>
-      <c r="W35" s="534"/>
-      <c r="X35" s="534"/>
-      <c r="Y35" s="534"/>
-      <c r="Z35" s="534"/>
-      <c r="AA35" s="534"/>
-      <c r="AB35" s="534"/>
-      <c r="AC35" s="534"/>
-      <c r="AD35" s="534"/>
-      <c r="AE35" s="534"/>
-      <c r="AF35" s="534"/>
+    <row r="35" spans="4:32" ht="30" customHeight="1">
+      <c r="D35" s="538"/>
+      <c r="E35" s="538"/>
+      <c r="F35" s="538"/>
+      <c r="G35" s="538"/>
+      <c r="H35" s="538"/>
+      <c r="I35" s="538"/>
+      <c r="J35" s="538"/>
+      <c r="K35" s="538"/>
+      <c r="L35" s="538"/>
+      <c r="M35" s="538"/>
+      <c r="N35" s="538"/>
+      <c r="O35" s="538"/>
+      <c r="P35" s="538"/>
+      <c r="Q35" s="538"/>
+      <c r="R35" s="538"/>
+      <c r="S35" s="538"/>
+      <c r="T35" s="538"/>
+      <c r="U35" s="538"/>
+      <c r="V35" s="538"/>
+      <c r="W35" s="538"/>
+      <c r="X35" s="538"/>
+      <c r="Y35" s="538"/>
+      <c r="Z35" s="538"/>
+      <c r="AA35" s="538"/>
+      <c r="AB35" s="538"/>
+      <c r="AC35" s="538"/>
+      <c r="AD35" s="538"/>
+      <c r="AE35" s="538"/>
+      <c r="AF35" s="538"/>
     </row>
-    <row r="36" spans="4:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="534"/>
-      <c r="E36" s="534"/>
-      <c r="F36" s="534"/>
-      <c r="G36" s="534"/>
-      <c r="H36" s="534"/>
-      <c r="I36" s="534"/>
-      <c r="J36" s="534"/>
-      <c r="K36" s="534"/>
-      <c r="L36" s="534"/>
-      <c r="M36" s="534"/>
-      <c r="N36" s="534"/>
-      <c r="O36" s="534"/>
-      <c r="P36" s="534"/>
-      <c r="Q36" s="534"/>
-      <c r="R36" s="534"/>
-      <c r="S36" s="534"/>
-      <c r="T36" s="534"/>
-      <c r="U36" s="534"/>
-      <c r="V36" s="534"/>
-      <c r="W36" s="534"/>
-      <c r="X36" s="534"/>
-      <c r="Y36" s="534"/>
-      <c r="Z36" s="534"/>
-      <c r="AA36" s="534"/>
-      <c r="AB36" s="534"/>
-      <c r="AC36" s="534"/>
-      <c r="AD36" s="534"/>
-      <c r="AE36" s="534"/>
-      <c r="AF36" s="534"/>
+    <row r="36" spans="4:32" ht="30" customHeight="1">
+      <c r="D36" s="538"/>
+      <c r="E36" s="538"/>
+      <c r="F36" s="538"/>
+      <c r="G36" s="538"/>
+      <c r="H36" s="538"/>
+      <c r="I36" s="538"/>
+      <c r="J36" s="538"/>
+      <c r="K36" s="538"/>
+      <c r="L36" s="538"/>
+      <c r="M36" s="538"/>
+      <c r="N36" s="538"/>
+      <c r="O36" s="538"/>
+      <c r="P36" s="538"/>
+      <c r="Q36" s="538"/>
+      <c r="R36" s="538"/>
+      <c r="S36" s="538"/>
+      <c r="T36" s="538"/>
+      <c r="U36" s="538"/>
+      <c r="V36" s="538"/>
+      <c r="W36" s="538"/>
+      <c r="X36" s="538"/>
+      <c r="Y36" s="538"/>
+      <c r="Z36" s="538"/>
+      <c r="AA36" s="538"/>
+      <c r="AB36" s="538"/>
+      <c r="AC36" s="538"/>
+      <c r="AD36" s="538"/>
+      <c r="AE36" s="538"/>
+      <c r="AF36" s="538"/>
     </row>
   </sheetData>
-  <autoFilter ref="C8:AG8"/>
+  <autoFilter ref="C8:AG8" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="12">
+    <mergeCell ref="AI13:AL14"/>
+    <mergeCell ref="M25:T25"/>
+    <mergeCell ref="U25:AD25"/>
+    <mergeCell ref="AI25:AL28"/>
+    <mergeCell ref="D27:AF36"/>
     <mergeCell ref="C4:AG4"/>
     <mergeCell ref="M5:AD5"/>
     <mergeCell ref="AE5:AG5"/>
@@ -28159,11 +28303,6 @@
     <mergeCell ref="M6:T6"/>
     <mergeCell ref="U6:AD6"/>
     <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AI13:AL14"/>
-    <mergeCell ref="M25:T25"/>
-    <mergeCell ref="U25:AD25"/>
-    <mergeCell ref="AI25:AL28"/>
-    <mergeCell ref="D27:AF36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28175,44 +28314,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:DL424"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="AA8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" sqref="A1:AE1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="7" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="9" width="15.7109375" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="15.7109375" style="8" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="13.7109375" style="8" customWidth="1"/>
-    <col min="13" max="18" width="13.7109375" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="13.7109375" style="8" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.7109375" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="13.7109375" style="8" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="13.7109375" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="13.7109375" style="8" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.7109375" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="13.7109375" style="8" customWidth="1" collapsed="1"/>
-    <col min="27" max="28" width="13.7109375" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="13.7109375" style="8" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.7109375" style="8" customWidth="1"/>
-    <col min="31" max="31" width="13.7109375" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="13.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="33" max="41" width="13.7109375" style="7" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="5.3984375" style="7" customWidth="1"/>
+    <col min="2" max="3" width="30.73046875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.73046875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.73046875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="30.73046875" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="9" width="15.73046875" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="15.73046875" style="8" customWidth="1"/>
+    <col min="11" max="12" width="13.73046875" style="8" customWidth="1"/>
+    <col min="13" max="18" width="13.73046875" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="13.73046875" style="8" customWidth="1"/>
+    <col min="20" max="20" width="13.73046875" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="13.73046875" style="8" customWidth="1"/>
+    <col min="22" max="23" width="13.73046875" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="13.73046875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="13.73046875" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="13.73046875" style="8" customWidth="1"/>
+    <col min="27" max="28" width="13.73046875" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="30" width="13.73046875" style="8" customWidth="1"/>
+    <col min="31" max="31" width="13.73046875" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="41" width="13.73046875" style="7" customWidth="1"/>
+    <col min="42" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:116" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:116" ht="15" customHeight="1">
       <c r="B1" s="539"/>
       <c r="C1" s="539"/>
       <c r="D1" s="539"/>
@@ -28243,7 +28381,7 @@
       <c r="AC1" s="539"/>
       <c r="AD1" s="539"/>
     </row>
-    <row r="2" spans="1:116" s="19" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:116" s="19" customFormat="1" ht="35.1" customHeight="1">
       <c r="A2" s="544" t="s">
         <v>8</v>
       </c>
@@ -28363,7 +28501,7 @@
       <c r="DK2" s="7"/>
       <c r="DL2" s="7"/>
     </row>
-    <row r="3" spans="1:116" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:116" ht="30" customHeight="1">
       <c r="E3" s="18"/>
       <c r="K3" s="540" t="s">
         <v>629</v>
@@ -28392,7 +28530,7 @@
       <c r="AE3" s="540"/>
       <c r="AF3" s="17"/>
     </row>
-    <row r="4" spans="1:116" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:116" ht="30" customHeight="1" thickBot="1">
       <c r="E4" s="101"/>
       <c r="F4" s="543" t="s">
         <v>628</v>
@@ -28430,7 +28568,7 @@
       <c r="AE4" s="541"/>
       <c r="AF4" s="17"/>
     </row>
-    <row r="5" spans="1:116" s="11" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:116" s="11" customFormat="1" ht="69.95" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>685</v>
       </c>
@@ -28525,7 +28663,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="6" spans="1:116" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:116" ht="12.95" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -28558,7 +28696,7 @@
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
     </row>
-    <row r="7" spans="1:116" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:116" ht="13.5" hidden="1" customHeight="1">
       <c r="A7" s="518">
         <v>1.0009999999999999</v>
       </c>
@@ -28651,7 +28789,7 @@
         <v>-4.3499999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:116" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:116" ht="13.5" customHeight="1">
       <c r="A8" s="518">
         <v>1.002</v>
       </c>
@@ -28706,7 +28844,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:116" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:116" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A9" s="518">
         <v>1.0029999999999999</v>
       </c>
@@ -28789,7 +28927,7 @@
       <c r="AD9" s="519"/>
       <c r="AE9" s="519"/>
     </row>
-    <row r="10" spans="1:116" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:116" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A10" s="518">
         <v>1.004</v>
       </c>
@@ -28872,7 +29010,7 @@
       <c r="AD10" s="519"/>
       <c r="AE10" s="519"/>
     </row>
-    <row r="11" spans="1:116" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:116" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A11" s="518">
         <v>1.0049999999999999</v>
       </c>
@@ -28955,7 +29093,7 @@
       <c r="AD11" s="519"/>
       <c r="AE11" s="519"/>
     </row>
-    <row r="12" spans="1:116" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:116" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A12" s="518">
         <v>1.006</v>
       </c>
@@ -29038,7 +29176,7 @@
       <c r="AD12" s="519"/>
       <c r="AE12" s="519"/>
     </row>
-    <row r="13" spans="1:116" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:116" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A13" s="518">
         <v>1.0069999999999999</v>
       </c>
@@ -29121,7 +29259,7 @@
       <c r="AD13" s="519"/>
       <c r="AE13" s="519"/>
     </row>
-    <row r="14" spans="1:116" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:116" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A14" s="518">
         <v>1.008</v>
       </c>
@@ -29204,7 +29342,7 @@
       <c r="AD14" s="519"/>
       <c r="AE14" s="519"/>
     </row>
-    <row r="15" spans="1:116" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:116" ht="13.5" customHeight="1">
       <c r="A15" s="518">
         <v>1.0089999999999999</v>
       </c>
@@ -29259,7 +29397,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:116" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:116" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A16" s="518">
         <v>1.01</v>
       </c>
@@ -29342,7 +29480,7 @@
       <c r="AD16" s="519"/>
       <c r="AE16" s="519"/>
     </row>
-    <row r="17" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A17" s="518">
         <v>1.0109999999999999</v>
       </c>
@@ -29425,7 +29563,7 @@
       <c r="AD17" s="519"/>
       <c r="AE17" s="519"/>
     </row>
-    <row r="18" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A18" s="518">
         <v>1.012</v>
       </c>
@@ -29508,7 +29646,7 @@
       <c r="AD18" s="519"/>
       <c r="AE18" s="519"/>
     </row>
-    <row r="19" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A19" s="518">
         <v>1.0129999999999999</v>
       </c>
@@ -29591,7 +29729,7 @@
       <c r="AD19" s="519"/>
       <c r="AE19" s="519"/>
     </row>
-    <row r="20" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A20" s="518">
         <v>1.014</v>
       </c>
@@ -29674,7 +29812,7 @@
       <c r="AD20" s="519"/>
       <c r="AE20" s="519"/>
     </row>
-    <row r="21" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A21" s="518">
         <v>1.0149999999999999</v>
       </c>
@@ -29757,7 +29895,7 @@
       <c r="AD21" s="519"/>
       <c r="AE21" s="519"/>
     </row>
-    <row r="22" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" ht="13.5" customHeight="1">
       <c r="A22" s="518">
         <v>1.016</v>
       </c>
@@ -29812,7 +29950,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A23" s="518">
         <v>1.0169999999999999</v>
       </c>
@@ -29895,7 +30033,7 @@
       <c r="AD23" s="519"/>
       <c r="AE23" s="519"/>
     </row>
-    <row r="24" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A24" s="518">
         <v>1.018</v>
       </c>
@@ -29978,7 +30116,7 @@
       <c r="AD24" s="519"/>
       <c r="AE24" s="519"/>
     </row>
-    <row r="25" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A25" s="518">
         <v>1.0189999999999999</v>
       </c>
@@ -30061,7 +30199,7 @@
       <c r="AD25" s="519"/>
       <c r="AE25" s="519"/>
     </row>
-    <row r="26" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A26" s="518">
         <v>1.02</v>
       </c>
@@ -30144,7 +30282,7 @@
       <c r="AD26" s="519"/>
       <c r="AE26" s="519"/>
     </row>
-    <row r="27" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" ht="13.5" customHeight="1">
       <c r="A27" s="518">
         <v>1.0209999999999999</v>
       </c>
@@ -30199,7 +30337,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A28" s="518">
         <v>1.022</v>
       </c>
@@ -30282,7 +30420,7 @@
       <c r="AD28" s="519"/>
       <c r="AE28" s="519"/>
     </row>
-    <row r="29" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A29" s="518">
         <v>1.0229999999999999</v>
       </c>
@@ -30365,7 +30503,7 @@
       <c r="AD29" s="519"/>
       <c r="AE29" s="519"/>
     </row>
-    <row r="30" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A30" s="518">
         <v>1.024</v>
       </c>
@@ -30448,7 +30586,7 @@
       <c r="AD30" s="519"/>
       <c r="AE30" s="519"/>
     </row>
-    <row r="31" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A31" s="518">
         <v>1.0249999999999999</v>
       </c>
@@ -30531,7 +30669,7 @@
       <c r="AD31" s="519"/>
       <c r="AE31" s="519"/>
     </row>
-    <row r="32" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A32" s="518">
         <v>1.026</v>
       </c>
@@ -30614,7 +30752,7 @@
       <c r="AD32" s="519"/>
       <c r="AE32" s="519"/>
     </row>
-    <row r="33" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A33" s="518">
         <v>1.0269999999999999</v>
       </c>
@@ -30697,7 +30835,7 @@
       <c r="AD33" s="519"/>
       <c r="AE33" s="519"/>
     </row>
-    <row r="34" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A34" s="518">
         <v>1.028</v>
       </c>
@@ -30790,7 +30928,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" ht="13.5" customHeight="1">
       <c r="A35" s="518">
         <v>1.0289999999999999</v>
       </c>
@@ -30845,7 +30983,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A36" s="518">
         <v>1.03</v>
       </c>
@@ -30928,7 +31066,7 @@
       <c r="AD36" s="519"/>
       <c r="AE36" s="519"/>
     </row>
-    <row r="37" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A37" s="518">
         <v>1.0309999999999999</v>
       </c>
@@ -31011,7 +31149,7 @@
       <c r="AD37" s="519"/>
       <c r="AE37" s="519"/>
     </row>
-    <row r="38" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A38" s="518">
         <v>1.032</v>
       </c>
@@ -31094,7 +31232,7 @@
       <c r="AD38" s="519"/>
       <c r="AE38" s="519"/>
     </row>
-    <row r="39" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A39" s="518">
         <v>1.0329999999999999</v>
       </c>
@@ -31177,7 +31315,7 @@
       <c r="AD39" s="519"/>
       <c r="AE39" s="519"/>
     </row>
-    <row r="40" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A40" s="518">
         <v>1.034</v>
       </c>
@@ -31260,7 +31398,7 @@
       <c r="AD40" s="519"/>
       <c r="AE40" s="519"/>
     </row>
-    <row r="41" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A41" s="518">
         <v>1.0349999999999999</v>
       </c>
@@ -31353,7 +31491,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" ht="13.5" customHeight="1">
       <c r="A42" s="518">
         <v>1.036</v>
       </c>
@@ -31408,7 +31546,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A43" s="518">
         <v>1.0369999999999999</v>
       </c>
@@ -31473,7 +31611,7 @@
       <c r="AD43" s="519"/>
       <c r="AE43" s="519"/>
     </row>
-    <row r="44" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A44" s="518">
         <v>1.038</v>
       </c>
@@ -31538,7 +31676,7 @@
       <c r="AD44" s="519"/>
       <c r="AE44" s="519"/>
     </row>
-    <row r="45" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A45" s="518">
         <v>1.0389999999999999</v>
       </c>
@@ -31603,7 +31741,7 @@
       <c r="AD45" s="519"/>
       <c r="AE45" s="519"/>
     </row>
-    <row r="46" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A46" s="518">
         <v>1.04</v>
       </c>
@@ -31668,7 +31806,7 @@
       <c r="AD46" s="519"/>
       <c r="AE46" s="519"/>
     </row>
-    <row r="47" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A47" s="518">
         <v>1.0409999999999999</v>
       </c>
@@ -31733,7 +31871,7 @@
       <c r="AD47" s="519"/>
       <c r="AE47" s="519"/>
     </row>
-    <row r="48" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A48" s="518">
         <v>1.042</v>
       </c>
@@ -31798,7 +31936,7 @@
       <c r="AD48" s="519"/>
       <c r="AE48" s="519"/>
     </row>
-    <row r="49" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A49" s="518">
         <v>1.0429999999999999</v>
       </c>
@@ -31891,7 +32029,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A50" s="518">
         <v>1.044</v>
       </c>
@@ -31984,7 +32122,7 @@
         <v>-2.4199999999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" ht="13.5" customHeight="1">
       <c r="A51" s="518">
         <v>1.0449999999999999</v>
       </c>
@@ -32039,7 +32177,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A52" s="518">
         <v>1.046</v>
       </c>
@@ -32122,7 +32260,7 @@
       <c r="AD52" s="519"/>
       <c r="AE52" s="519"/>
     </row>
-    <row r="53" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A53" s="518">
         <v>1.0469999999999999</v>
       </c>
@@ -32205,7 +32343,7 @@
       <c r="AD53" s="519"/>
       <c r="AE53" s="519"/>
     </row>
-    <row r="54" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A54" s="518">
         <v>1.048</v>
       </c>
@@ -32288,7 +32426,7 @@
       <c r="AD54" s="519"/>
       <c r="AE54" s="519"/>
     </row>
-    <row r="55" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A55" s="518">
         <v>1.0489999999999999</v>
       </c>
@@ -32371,7 +32509,7 @@
       <c r="AD55" s="519"/>
       <c r="AE55" s="519"/>
     </row>
-    <row r="56" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A56" s="518">
         <v>1.05</v>
       </c>
@@ -32464,7 +32602,7 @@
         <v>0.1094</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A57" s="518">
         <v>1.0509999999999999</v>
       </c>
@@ -32557,7 +32695,7 @@
         <v>-8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A58" s="518">
         <v>1.052</v>
       </c>
@@ -32650,7 +32788,7 @@
         <v>3.73E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A59" s="518">
         <v>1.0529999999999999</v>
       </c>
@@ -32743,7 +32881,7 @@
         <v>-1.09E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A60" s="518">
         <v>1.054</v>
       </c>
@@ -32836,7 +32974,7 @@
         <v>-2.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A61" s="518">
         <v>1.0549999999999999</v>
       </c>
@@ -32929,7 +33067,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" ht="13.5" customHeight="1">
       <c r="A62" s="518">
         <v>1.056</v>
       </c>
@@ -32984,7 +33122,7 @@
         <v>-2.6200000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A63" s="518">
         <v>1.0569999999999999</v>
       </c>
@@ -33067,7 +33205,7 @@
       <c r="AD63" s="519"/>
       <c r="AE63" s="519"/>
     </row>
-    <row r="64" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A64" s="518">
         <v>1.0580000000000001</v>
       </c>
@@ -33150,7 +33288,7 @@
       <c r="AD64" s="519"/>
       <c r="AE64" s="519"/>
     </row>
-    <row r="65" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A65" s="518">
         <v>1.0589999999999999</v>
       </c>
@@ -33233,7 +33371,7 @@
       <c r="AD65" s="519"/>
       <c r="AE65" s="519"/>
     </row>
-    <row r="66" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A66" s="518">
         <v>1.06</v>
       </c>
@@ -33316,7 +33454,7 @@
       <c r="AD66" s="519"/>
       <c r="AE66" s="519"/>
     </row>
-    <row r="67" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A67" s="518">
         <v>1.0609999999999999</v>
       </c>
@@ -33399,7 +33537,7 @@
       <c r="AD67" s="519"/>
       <c r="AE67" s="519"/>
     </row>
-    <row r="68" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A68" s="518">
         <v>1.0620000000000001</v>
       </c>
@@ -33482,7 +33620,7 @@
       <c r="AD68" s="519"/>
       <c r="AE68" s="519"/>
     </row>
-    <row r="69" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A69" s="518">
         <v>1.0629999999999999</v>
       </c>
@@ -33565,7 +33703,7 @@
       <c r="AD69" s="519"/>
       <c r="AE69" s="519"/>
     </row>
-    <row r="70" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31" ht="13.5" customHeight="1">
       <c r="A70" s="518">
         <v>1.0640000000000001</v>
       </c>
@@ -33620,7 +33758,7 @@
         <v>-1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A71" s="518">
         <v>1.0649999999999999</v>
       </c>
@@ -33695,7 +33833,7 @@
       <c r="AD71" s="519"/>
       <c r="AE71" s="519"/>
     </row>
-    <row r="72" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A72" s="518">
         <v>1.0660000000000001</v>
       </c>
@@ -33778,7 +33916,7 @@
       <c r="AD72" s="519"/>
       <c r="AE72" s="519"/>
     </row>
-    <row r="73" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A73" s="518">
         <v>1.0669999999999999</v>
       </c>
@@ -33861,7 +33999,7 @@
       <c r="AD73" s="519"/>
       <c r="AE73" s="519"/>
     </row>
-    <row r="74" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A74" s="518">
         <v>1.0680000000000001</v>
       </c>
@@ -33944,7 +34082,7 @@
       <c r="AD74" s="519"/>
       <c r="AE74" s="519"/>
     </row>
-    <row r="75" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A75" s="518">
         <v>1.069</v>
       </c>
@@ -34027,7 +34165,7 @@
       <c r="AD75" s="519"/>
       <c r="AE75" s="519"/>
     </row>
-    <row r="76" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A76" s="518">
         <v>1.07</v>
       </c>
@@ -34110,7 +34248,7 @@
       <c r="AD76" s="519"/>
       <c r="AE76" s="519"/>
     </row>
-    <row r="77" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A77" s="518">
         <v>1.071</v>
       </c>
@@ -34193,7 +34331,7 @@
       <c r="AD77" s="519"/>
       <c r="AE77" s="519"/>
     </row>
-    <row r="78" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:31" ht="13.5" customHeight="1">
       <c r="A78" s="518">
         <v>1.0720000000000001</v>
       </c>
@@ -34248,7 +34386,7 @@
         <v>-1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A79" s="518">
         <v>1.073</v>
       </c>
@@ -34313,7 +34451,7 @@
       <c r="AD79" s="519"/>
       <c r="AE79" s="519"/>
     </row>
-    <row r="80" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A80" s="518">
         <v>1.0740000000000001</v>
       </c>
@@ -34396,7 +34534,7 @@
       <c r="AD80" s="519"/>
       <c r="AE80" s="519"/>
     </row>
-    <row r="81" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A81" s="518">
         <v>1.075</v>
       </c>
@@ -34479,7 +34617,7 @@
       <c r="AD81" s="519"/>
       <c r="AE81" s="519"/>
     </row>
-    <row r="82" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A82" s="518">
         <v>1.0760000000000001</v>
       </c>
@@ -34562,7 +34700,7 @@
       <c r="AD82" s="519"/>
       <c r="AE82" s="519"/>
     </row>
-    <row r="83" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A83" s="518">
         <v>1.077</v>
       </c>
@@ -34645,7 +34783,7 @@
       <c r="AD83" s="519"/>
       <c r="AE83" s="519"/>
     </row>
-    <row r="84" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A84" s="518">
         <v>1.0780000000000001</v>
       </c>
@@ -34728,7 +34866,7 @@
       <c r="AD84" s="519"/>
       <c r="AE84" s="519"/>
     </row>
-    <row r="85" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A85" s="518">
         <v>1.079</v>
       </c>
@@ -34811,7 +34949,7 @@
       <c r="AD85" s="519"/>
       <c r="AE85" s="519"/>
     </row>
-    <row r="86" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A86" s="518">
         <v>1.08</v>
       </c>
@@ -34904,7 +35042,7 @@
         <v>-6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A87" s="518">
         <v>1.081</v>
       </c>
@@ -34997,7 +35135,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A88" s="518">
         <v>1.0820000000000001</v>
       </c>
@@ -35090,7 +35228,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A89" s="518">
         <v>1.083</v>
       </c>
@@ -35183,7 +35321,7 @@
         <v>-3.09E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A90" s="518">
         <v>1.0840000000000001</v>
       </c>
@@ -35276,7 +35414,7 @@
         <v>-1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:31" ht="13.5" customHeight="1">
       <c r="A91" s="518">
         <v>1.085</v>
       </c>
@@ -35331,7 +35469,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A92" s="518">
         <v>1.0860000000000001</v>
       </c>
@@ -35406,7 +35544,7 @@
       <c r="AD92" s="519"/>
       <c r="AE92" s="519"/>
     </row>
-    <row r="93" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A93" s="518">
         <v>1.087</v>
       </c>
@@ -35489,7 +35627,7 @@
       <c r="AD93" s="519"/>
       <c r="AE93" s="519"/>
     </row>
-    <row r="94" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A94" s="518">
         <v>1.0880000000000001</v>
       </c>
@@ -35572,7 +35710,7 @@
       <c r="AD94" s="519"/>
       <c r="AE94" s="519"/>
     </row>
-    <row r="95" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A95" s="518">
         <v>1.089</v>
       </c>
@@ -35655,7 +35793,7 @@
       <c r="AD95" s="519"/>
       <c r="AE95" s="519"/>
     </row>
-    <row r="96" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A96" s="518">
         <v>1.0900000000000001</v>
       </c>
@@ -35738,7 +35876,7 @@
       <c r="AD96" s="519"/>
       <c r="AE96" s="519"/>
     </row>
-    <row r="97" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A97" s="518">
         <v>1.091</v>
       </c>
@@ -35821,7 +35959,7 @@
       <c r="AD97" s="519"/>
       <c r="AE97" s="519"/>
     </row>
-    <row r="98" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A98" s="518">
         <v>1.0920000000000001</v>
       </c>
@@ -35904,7 +36042,7 @@
       <c r="AD98" s="519"/>
       <c r="AE98" s="519"/>
     </row>
-    <row r="99" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A99" s="518">
         <v>1.093</v>
       </c>
@@ -35987,7 +36125,7 @@
       <c r="AD99" s="519"/>
       <c r="AE99" s="519"/>
     </row>
-    <row r="100" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A100" s="518">
         <v>1.0940000000000001</v>
       </c>
@@ -36070,7 +36208,7 @@
       <c r="AD100" s="519"/>
       <c r="AE100" s="519"/>
     </row>
-    <row r="101" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A101" s="518">
         <v>1.095</v>
       </c>
@@ -36153,7 +36291,7 @@
       <c r="AD101" s="519"/>
       <c r="AE101" s="519"/>
     </row>
-    <row r="102" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A102" s="518">
         <v>1.0960000000000001</v>
       </c>
@@ -36236,7 +36374,7 @@
       <c r="AD102" s="519"/>
       <c r="AE102" s="519"/>
     </row>
-    <row r="103" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A103" s="518">
         <v>1.097</v>
       </c>
@@ -36319,7 +36457,7 @@
       <c r="AD103" s="519"/>
       <c r="AE103" s="519"/>
     </row>
-    <row r="104" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:31" ht="13.5" customHeight="1">
       <c r="A104" s="518">
         <v>1.0980000000000001</v>
       </c>
@@ -36374,7 +36512,7 @@
         <v>9.74E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A105" s="518">
         <v>1.099</v>
       </c>
@@ -36439,7 +36577,7 @@
       <c r="AD105" s="519"/>
       <c r="AE105" s="519"/>
     </row>
-    <row r="106" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A106" s="518">
         <v>1.1000000000000001</v>
       </c>
@@ -36504,7 +36642,7 @@
       <c r="AD106" s="519"/>
       <c r="AE106" s="519"/>
     </row>
-    <row r="107" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A107" s="518">
         <v>1.101</v>
       </c>
@@ -36587,7 +36725,7 @@
       <c r="AD107" s="519"/>
       <c r="AE107" s="519"/>
     </row>
-    <row r="108" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A108" s="518">
         <v>1.1020000000000001</v>
       </c>
@@ -36652,7 +36790,7 @@
       <c r="AD108" s="519"/>
       <c r="AE108" s="519"/>
     </row>
-    <row r="109" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A109" s="518">
         <v>1.103</v>
       </c>
@@ -36735,7 +36873,7 @@
       <c r="AD109" s="519"/>
       <c r="AE109" s="519"/>
     </row>
-    <row r="110" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A110" s="518">
         <v>1.1040000000000001</v>
       </c>
@@ -36800,7 +36938,7 @@
       <c r="AD110" s="519"/>
       <c r="AE110" s="519"/>
     </row>
-    <row r="111" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A111" s="518">
         <v>1.105</v>
       </c>
@@ -36883,7 +37021,7 @@
       <c r="AD111" s="519"/>
       <c r="AE111" s="519"/>
     </row>
-    <row r="112" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A112" s="518">
         <v>1.1060000000000001</v>
       </c>
@@ -36948,7 +37086,7 @@
       <c r="AD112" s="519"/>
       <c r="AE112" s="519"/>
     </row>
-    <row r="113" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A113" s="518">
         <v>1.107</v>
       </c>
@@ -37031,7 +37169,7 @@
       <c r="AD113" s="519"/>
       <c r="AE113" s="519"/>
     </row>
-    <row r="114" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A114" s="518">
         <v>1.1080000000000001</v>
       </c>
@@ -37096,7 +37234,7 @@
       <c r="AD114" s="519"/>
       <c r="AE114" s="519"/>
     </row>
-    <row r="115" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A115" s="518">
         <v>1.109</v>
       </c>
@@ -37179,7 +37317,7 @@
       <c r="AD115" s="519"/>
       <c r="AE115" s="519"/>
     </row>
-    <row r="116" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A116" s="518">
         <v>1.1100000000000001</v>
       </c>
@@ -37262,7 +37400,7 @@
       <c r="AD116" s="519"/>
       <c r="AE116" s="519"/>
     </row>
-    <row r="117" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A117" s="518">
         <v>1.111</v>
       </c>
@@ -37355,7 +37493,7 @@
         <v>-9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A118" s="518">
         <v>1.1120000000000001</v>
       </c>
@@ -37440,7 +37578,7 @@
         <v>0.23150000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A119" s="518">
         <v>1.113</v>
       </c>
@@ -37533,7 +37671,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:31" ht="13.5" customHeight="1">
       <c r="A120" s="518">
         <v>1.1140000000000001</v>
       </c>
@@ -37588,7 +37726,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A121" s="518">
         <v>1.115</v>
       </c>
@@ -37653,7 +37791,7 @@
       <c r="AD121" s="519"/>
       <c r="AE121" s="519"/>
     </row>
-    <row r="122" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A122" s="518">
         <v>1.1160000000000001</v>
       </c>
@@ -37718,7 +37856,7 @@
       <c r="AD122" s="519"/>
       <c r="AE122" s="519"/>
     </row>
-    <row r="123" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A123" s="518">
         <v>1.117</v>
       </c>
@@ -37783,7 +37921,7 @@
       <c r="AD123" s="519"/>
       <c r="AE123" s="519"/>
     </row>
-    <row r="124" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A124" s="518">
         <v>1.1180000000000001</v>
       </c>
@@ -37866,7 +38004,7 @@
       <c r="AD124" s="519"/>
       <c r="AE124" s="519"/>
     </row>
-    <row r="125" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A125" s="518">
         <v>1.119</v>
       </c>
@@ -37959,7 +38097,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A126" s="518">
         <v>1.1200000000000001</v>
       </c>
@@ -38052,7 +38190,7 @@
         <v>-9.2899999999999996E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A127" s="518">
         <v>1.121</v>
       </c>
@@ -38145,7 +38283,7 @@
         <v>-4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A128" s="518">
         <v>1.1220000000000001</v>
       </c>
@@ -38238,7 +38376,7 @@
         <v>1.67E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A129" s="518">
         <v>1.123</v>
       </c>
@@ -38331,7 +38469,7 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:31" ht="13.5" customHeight="1">
       <c r="A130" s="518">
         <v>1.1240000000000001</v>
       </c>
@@ -38386,7 +38524,7 @@
         <v>-3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A131" s="518">
         <v>1.125</v>
       </c>
@@ -38469,7 +38607,7 @@
       <c r="AD131" s="519"/>
       <c r="AE131" s="519"/>
     </row>
-    <row r="132" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A132" s="518">
         <v>1.1259999999999999</v>
       </c>
@@ -38552,7 +38690,7 @@
       <c r="AD132" s="519"/>
       <c r="AE132" s="519"/>
     </row>
-    <row r="133" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A133" s="518">
         <v>1.127</v>
       </c>
@@ -38635,7 +38773,7 @@
       <c r="AD133" s="519"/>
       <c r="AE133" s="519"/>
     </row>
-    <row r="134" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A134" s="518">
         <v>1.1279999999999999</v>
       </c>
@@ -38718,7 +38856,7 @@
       <c r="AD134" s="519"/>
       <c r="AE134" s="519"/>
     </row>
-    <row r="135" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A135" s="518">
         <v>1.129</v>
       </c>
@@ -38801,7 +38939,7 @@
       <c r="AD135" s="519"/>
       <c r="AE135" s="519"/>
     </row>
-    <row r="136" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A136" s="518">
         <v>1.1299999999999999</v>
       </c>
@@ -38884,7 +39022,7 @@
       <c r="AD136" s="519"/>
       <c r="AE136" s="519"/>
     </row>
-    <row r="137" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A137" s="518">
         <v>1.131</v>
       </c>
@@ -38967,7 +39105,7 @@
       <c r="AD137" s="519"/>
       <c r="AE137" s="519"/>
     </row>
-    <row r="138" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A138" s="518">
         <v>1.1319999999999999</v>
       </c>
@@ -39050,7 +39188,7 @@
       <c r="AD138" s="519"/>
       <c r="AE138" s="519"/>
     </row>
-    <row r="139" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A139" s="518">
         <v>1.133</v>
       </c>
@@ -39133,7 +39271,7 @@
       <c r="AD139" s="519"/>
       <c r="AE139" s="519"/>
     </row>
-    <row r="140" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A140" s="518">
         <v>1.1339999999999999</v>
       </c>
@@ -39216,7 +39354,7 @@
       <c r="AD140" s="519"/>
       <c r="AE140" s="519"/>
     </row>
-    <row r="141" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A141" s="518">
         <v>1.135</v>
       </c>
@@ -39299,7 +39437,7 @@
       <c r="AD141" s="519"/>
       <c r="AE141" s="519"/>
     </row>
-    <row r="142" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A142" s="518">
         <v>1.1359999999999999</v>
       </c>
@@ -39382,7 +39520,7 @@
       <c r="AD142" s="519"/>
       <c r="AE142" s="519"/>
     </row>
-    <row r="143" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A143" s="518">
         <v>1.137</v>
       </c>
@@ -39465,7 +39603,7 @@
       <c r="AD143" s="519"/>
       <c r="AE143" s="519"/>
     </row>
-    <row r="144" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A144" s="518">
         <v>1.1379999999999999</v>
       </c>
@@ -39548,7 +39686,7 @@
       <c r="AD144" s="519"/>
       <c r="AE144" s="519"/>
     </row>
-    <row r="145" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A145" s="518">
         <v>1.139</v>
       </c>
@@ -39631,7 +39769,7 @@
       <c r="AD145" s="519"/>
       <c r="AE145" s="519"/>
     </row>
-    <row r="146" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A146" s="518">
         <v>1.1399999999999999</v>
       </c>
@@ -39714,7 +39852,7 @@
       <c r="AD146" s="519"/>
       <c r="AE146" s="519"/>
     </row>
-    <row r="147" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A147" s="518">
         <v>1.141</v>
       </c>
@@ -39797,7 +39935,7 @@
       <c r="AD147" s="519"/>
       <c r="AE147" s="519"/>
     </row>
-    <row r="148" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A148" s="518">
         <v>1.1419999999999999</v>
       </c>
@@ -39880,7 +40018,7 @@
       <c r="AD148" s="519"/>
       <c r="AE148" s="519"/>
     </row>
-    <row r="149" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A149" s="518">
         <v>1.143</v>
       </c>
@@ -39963,7 +40101,7 @@
       <c r="AD149" s="519"/>
       <c r="AE149" s="519"/>
     </row>
-    <row r="150" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A150" s="518">
         <v>1.1439999999999999</v>
       </c>
@@ -40046,7 +40184,7 @@
       <c r="AD150" s="519"/>
       <c r="AE150" s="519"/>
     </row>
-    <row r="151" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A151" s="518">
         <v>1.145</v>
       </c>
@@ -40129,7 +40267,7 @@
       <c r="AD151" s="519"/>
       <c r="AE151" s="519"/>
     </row>
-    <row r="152" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A152" s="518">
         <v>1.1459999999999999</v>
       </c>
@@ -40212,7 +40350,7 @@
       <c r="AD152" s="519"/>
       <c r="AE152" s="519"/>
     </row>
-    <row r="153" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A153" s="518">
         <v>1.147</v>
       </c>
@@ -40295,7 +40433,7 @@
       <c r="AD153" s="519"/>
       <c r="AE153" s="519"/>
     </row>
-    <row r="154" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A154" s="518">
         <v>1.1479999999999999</v>
       </c>
@@ -40378,7 +40516,7 @@
       <c r="AD154" s="519"/>
       <c r="AE154" s="519"/>
     </row>
-    <row r="155" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A155" s="518">
         <v>1.149</v>
       </c>
@@ -40461,7 +40599,7 @@
       <c r="AD155" s="519"/>
       <c r="AE155" s="519"/>
     </row>
-    <row r="156" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A156" s="518">
         <v>1.1499999999999999</v>
       </c>
@@ -40544,7 +40682,7 @@
       <c r="AD156" s="519"/>
       <c r="AE156" s="519"/>
     </row>
-    <row r="157" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A157" s="518">
         <v>1.151</v>
       </c>
@@ -40627,7 +40765,7 @@
       <c r="AD157" s="519"/>
       <c r="AE157" s="519"/>
     </row>
-    <row r="158" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A158" s="518">
         <v>1.1519999999999999</v>
       </c>
@@ -40710,7 +40848,7 @@
       <c r="AD158" s="519"/>
       <c r="AE158" s="519"/>
     </row>
-    <row r="159" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A159" s="518">
         <v>1.153</v>
       </c>
@@ -40793,7 +40931,7 @@
       <c r="AD159" s="519"/>
       <c r="AE159" s="519"/>
     </row>
-    <row r="160" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A160" s="518">
         <v>1.1539999999999999</v>
       </c>
@@ -40876,7 +41014,7 @@
       <c r="AD160" s="519"/>
       <c r="AE160" s="519"/>
     </row>
-    <row r="161" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A161" s="518">
         <v>1.155</v>
       </c>
@@ -40959,7 +41097,7 @@
       <c r="AD161" s="519"/>
       <c r="AE161" s="519"/>
     </row>
-    <row r="162" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A162" s="518">
         <v>1.1559999999999999</v>
       </c>
@@ -41042,7 +41180,7 @@
       <c r="AD162" s="519"/>
       <c r="AE162" s="519"/>
     </row>
-    <row r="163" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A163" s="518">
         <v>1.157</v>
       </c>
@@ -41125,7 +41263,7 @@
       <c r="AD163" s="519"/>
       <c r="AE163" s="519"/>
     </row>
-    <row r="164" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A164" s="518">
         <v>1.1579999999999999</v>
       </c>
@@ -41208,7 +41346,7 @@
       <c r="AD164" s="519"/>
       <c r="AE164" s="519"/>
     </row>
-    <row r="165" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A165" s="518">
         <v>1.159</v>
       </c>
@@ -41291,7 +41429,7 @@
       <c r="AD165" s="519"/>
       <c r="AE165" s="519"/>
     </row>
-    <row r="166" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A166" s="518">
         <v>1.1599999999999999</v>
       </c>
@@ -41374,7 +41512,7 @@
       <c r="AD166" s="519"/>
       <c r="AE166" s="519"/>
     </row>
-    <row r="167" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A167" s="518">
         <v>1.161</v>
       </c>
@@ -41457,7 +41595,7 @@
       <c r="AD167" s="519"/>
       <c r="AE167" s="519"/>
     </row>
-    <row r="168" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A168" s="518">
         <v>1.1619999999999999</v>
       </c>
@@ -41540,7 +41678,7 @@
       <c r="AD168" s="519"/>
       <c r="AE168" s="519"/>
     </row>
-    <row r="169" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A169" s="518">
         <v>1.163</v>
       </c>
@@ -41623,7 +41761,7 @@
       <c r="AD169" s="519"/>
       <c r="AE169" s="519"/>
     </row>
-    <row r="170" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A170" s="518">
         <v>1.1639999999999999</v>
       </c>
@@ -41706,7 +41844,7 @@
       <c r="AD170" s="519"/>
       <c r="AE170" s="519"/>
     </row>
-    <row r="171" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A171" s="518">
         <v>1.165</v>
       </c>
@@ -41789,7 +41927,7 @@
       <c r="AD171" s="519"/>
       <c r="AE171" s="519"/>
     </row>
-    <row r="172" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A172" s="518">
         <v>1.1659999999999999</v>
       </c>
@@ -41882,7 +42020,7 @@
         <v>-1.14E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:31" ht="13.5" customHeight="1">
       <c r="A173" s="518">
         <v>1.167</v>
       </c>
@@ -41937,7 +42075,7 @@
         <v>-1.17E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A174" s="518">
         <v>1.1679999999999999</v>
       </c>
@@ -42020,7 +42158,7 @@
       <c r="AD174" s="519"/>
       <c r="AE174" s="519"/>
     </row>
-    <row r="175" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A175" s="518">
         <v>1.169</v>
       </c>
@@ -42103,7 +42241,7 @@
       <c r="AD175" s="519"/>
       <c r="AE175" s="519"/>
     </row>
-    <row r="176" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:31" ht="13.5" customHeight="1">
       <c r="A176" s="518">
         <v>1.17</v>
       </c>
@@ -42158,7 +42296,7 @@
         <v>-3.6700000000000003E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A177" s="518">
         <v>1.171</v>
       </c>
@@ -42241,7 +42379,7 @@
       <c r="AD177" s="519"/>
       <c r="AE177" s="519"/>
     </row>
-    <row r="178" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A178" s="518">
         <v>1.1719999999999999</v>
       </c>
@@ -42324,7 +42462,7 @@
       <c r="AD178" s="519"/>
       <c r="AE178" s="519"/>
     </row>
-    <row r="179" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A179" s="518">
         <v>1.173</v>
       </c>
@@ -42407,7 +42545,7 @@
       <c r="AD179" s="519"/>
       <c r="AE179" s="519"/>
     </row>
-    <row r="180" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A180" s="518">
         <v>1.1739999999999999</v>
       </c>
@@ -42500,7 +42638,7 @@
         <v>-5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A181" s="518">
         <v>1.175</v>
       </c>
@@ -42593,7 +42731,7 @@
         <v>0.1168</v>
       </c>
     </row>
-    <row r="182" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A182" s="518">
         <v>1.1759999999999999</v>
       </c>
@@ -42686,7 +42824,7 @@
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A183" s="518">
         <v>1.177</v>
       </c>
@@ -42779,7 +42917,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A184" s="518">
         <v>1.1779999999999999</v>
       </c>
@@ -42872,7 +43010,7 @@
         <v>-1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A185" s="518">
         <v>1.179</v>
       </c>
@@ -42965,7 +43103,7 @@
         <v>-9.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A186" s="518">
         <v>1.18</v>
       </c>
@@ -43058,7 +43196,7 @@
         <v>-2.18E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A187" s="518">
         <v>1.181</v>
       </c>
@@ -43151,7 +43289,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:31" ht="13.5" customHeight="1">
       <c r="A188" s="518">
         <v>1.1819999999999999</v>
       </c>
@@ -43206,7 +43344,7 @@
         <v>-8.6E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A189" s="518">
         <v>1.1830000000000001</v>
       </c>
@@ -43289,7 +43427,7 @@
       <c r="AD189" s="519"/>
       <c r="AE189" s="519"/>
     </row>
-    <row r="190" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A190" s="518">
         <v>1.1839999999999999</v>
       </c>
@@ -43372,7 +43510,7 @@
       <c r="AD190" s="519"/>
       <c r="AE190" s="519"/>
     </row>
-    <row r="191" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:31" ht="13.5" customHeight="1">
       <c r="A191" s="518">
         <v>1.1850000000000001</v>
       </c>
@@ -43427,7 +43565,7 @@
         <v>-2.3E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A192" s="518">
         <v>1.1859999999999999</v>
       </c>
@@ -43510,7 +43648,7 @@
       <c r="AD192" s="519"/>
       <c r="AE192" s="519"/>
     </row>
-    <row r="193" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A193" s="518">
         <v>1.1870000000000001</v>
       </c>
@@ -43593,7 +43731,7 @@
       <c r="AD193" s="519"/>
       <c r="AE193" s="519"/>
     </row>
-    <row r="194" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A194" s="518">
         <v>1.1879999999999999</v>
       </c>
@@ -43676,7 +43814,7 @@
       <c r="AD194" s="519"/>
       <c r="AE194" s="519"/>
     </row>
-    <row r="195" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A195" s="518">
         <v>1.1890000000000001</v>
       </c>
@@ -43759,7 +43897,7 @@
       <c r="AD195" s="519"/>
       <c r="AE195" s="519"/>
     </row>
-    <row r="196" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A196" s="518">
         <v>1.19</v>
       </c>
@@ -43852,7 +43990,7 @@
         <v>-1.38E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A197" s="518">
         <v>1.1910000000000001</v>
       </c>
@@ -43945,7 +44083,7 @@
         <v>-3.4299999999999997E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A198" s="518">
         <v>1.1919999999999999</v>
       </c>
@@ -44038,7 +44176,7 @@
         <v>-1.49E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A199" s="518">
         <v>1.1930000000000001</v>
       </c>
@@ -44131,7 +44269,7 @@
         <v>-5.5199999999999999E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:31" ht="13.5" customHeight="1">
       <c r="A200" s="518">
         <v>1.194</v>
       </c>
@@ -44186,7 +44324,7 @@
         <v>-5.5199999999999999E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A201" s="518">
         <v>1.1950000000000001</v>
       </c>
@@ -44251,7 +44389,7 @@
       <c r="AD201" s="519"/>
       <c r="AE201" s="519"/>
     </row>
-    <row r="202" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A202" s="518">
         <v>1.196</v>
       </c>
@@ -44334,7 +44472,7 @@
       <c r="AD202" s="519"/>
       <c r="AE202" s="519"/>
     </row>
-    <row r="203" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A203" s="518">
         <v>1.1970000000000001</v>
       </c>
@@ -44417,7 +44555,7 @@
       <c r="AD203" s="519"/>
       <c r="AE203" s="519"/>
     </row>
-    <row r="204" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A204" s="518">
         <v>1.198</v>
       </c>
@@ -44500,7 +44638,7 @@
       <c r="AD204" s="519"/>
       <c r="AE204" s="519"/>
     </row>
-    <row r="205" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A205" s="518">
         <v>1.1990000000000001</v>
       </c>
@@ -44583,7 +44721,7 @@
       <c r="AD205" s="519"/>
       <c r="AE205" s="519"/>
     </row>
-    <row r="206" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A206" s="518">
         <v>1.2</v>
       </c>
@@ -44666,7 +44804,7 @@
       <c r="AD206" s="519"/>
       <c r="AE206" s="519"/>
     </row>
-    <row r="207" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A207" s="518">
         <v>1.2010000000000001</v>
       </c>
@@ -44749,7 +44887,7 @@
       <c r="AD207" s="519"/>
       <c r="AE207" s="519"/>
     </row>
-    <row r="208" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A208" s="518">
         <v>1.202</v>
       </c>
@@ -44832,7 +44970,7 @@
       <c r="AD208" s="519"/>
       <c r="AE208" s="519"/>
     </row>
-    <row r="209" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A209" s="518">
         <v>1.2030000000000001</v>
       </c>
@@ -44915,7 +45053,7 @@
       <c r="AD209" s="519"/>
       <c r="AE209" s="519"/>
     </row>
-    <row r="210" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A210" s="518">
         <v>1.204</v>
       </c>
@@ -44998,7 +45136,7 @@
       <c r="AD210" s="519"/>
       <c r="AE210" s="519"/>
     </row>
-    <row r="211" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A211" s="518">
         <v>1.2050000000000001</v>
       </c>
@@ -45081,7 +45219,7 @@
       <c r="AD211" s="519"/>
       <c r="AE211" s="519"/>
     </row>
-    <row r="212" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A212" s="518">
         <v>1.206</v>
       </c>
@@ -45164,7 +45302,7 @@
       <c r="AD212" s="519"/>
       <c r="AE212" s="519"/>
     </row>
-    <row r="213" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A213" s="518">
         <v>1.2070000000000001</v>
       </c>
@@ -45247,7 +45385,7 @@
       <c r="AD213" s="519"/>
       <c r="AE213" s="519"/>
     </row>
-    <row r="214" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A214" s="518">
         <v>1.208</v>
       </c>
@@ -45330,7 +45468,7 @@
       <c r="AD214" s="519"/>
       <c r="AE214" s="519"/>
     </row>
-    <row r="215" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A215" s="518">
         <v>1.2090000000000001</v>
       </c>
@@ -45413,7 +45551,7 @@
       <c r="AD215" s="519"/>
       <c r="AE215" s="519"/>
     </row>
-    <row r="216" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A216" s="518">
         <v>1.21</v>
       </c>
@@ -45488,7 +45626,7 @@
       <c r="AD216" s="519"/>
       <c r="AE216" s="519"/>
     </row>
-    <row r="217" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A217" s="518">
         <v>1.2110000000000001</v>
       </c>
@@ -45571,7 +45709,7 @@
       <c r="AD217" s="519"/>
       <c r="AE217" s="519"/>
     </row>
-    <row r="218" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:31" ht="13.5" customHeight="1">
       <c r="A218" s="518">
         <v>1.212</v>
       </c>
@@ -45626,7 +45764,7 @@
         <v>-5.5199999999999999E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A219" s="518">
         <v>1.2130000000000001</v>
       </c>
@@ -45691,7 +45829,7 @@
       <c r="AD219" s="519"/>
       <c r="AE219" s="519"/>
     </row>
-    <row r="220" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A220" s="518">
         <v>1.214</v>
       </c>
@@ -45756,7 +45894,7 @@
       <c r="AD220" s="519"/>
       <c r="AE220" s="519"/>
     </row>
-    <row r="221" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A221" s="518">
         <v>1.2150000000000001</v>
       </c>
@@ -45821,7 +45959,7 @@
       <c r="AD221" s="519"/>
       <c r="AE221" s="519"/>
     </row>
-    <row r="222" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A222" s="518">
         <v>1.216</v>
       </c>
@@ -45886,7 +46024,7 @@
       <c r="AD222" s="519"/>
       <c r="AE222" s="519"/>
     </row>
-    <row r="223" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A223" s="518">
         <v>1.2170000000000001</v>
       </c>
@@ -45951,7 +46089,7 @@
       <c r="AD223" s="519"/>
       <c r="AE223" s="519"/>
     </row>
-    <row r="224" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A224" s="518">
         <v>1.218</v>
       </c>
@@ -46016,7 +46154,7 @@
       <c r="AD224" s="519"/>
       <c r="AE224" s="519"/>
     </row>
-    <row r="225" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A225" s="518">
         <v>1.2190000000000001</v>
       </c>
@@ -46081,7 +46219,7 @@
       <c r="AD225" s="519"/>
       <c r="AE225" s="519"/>
     </row>
-    <row r="226" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A226" s="518">
         <v>1.22</v>
       </c>
@@ -46146,7 +46284,7 @@
       <c r="AD226" s="519"/>
       <c r="AE226" s="519"/>
     </row>
-    <row r="227" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A227" s="518">
         <v>1.2210000000000001</v>
       </c>
@@ -46211,7 +46349,7 @@
       <c r="AD227" s="519"/>
       <c r="AE227" s="519"/>
     </row>
-    <row r="228" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A228" s="518">
         <v>1.222</v>
       </c>
@@ -46276,7 +46414,7 @@
       <c r="AD228" s="519"/>
       <c r="AE228" s="519"/>
     </row>
-    <row r="229" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A229" s="518">
         <v>1.2230000000000001</v>
       </c>
@@ -46341,7 +46479,7 @@
       <c r="AD229" s="519"/>
       <c r="AE229" s="519"/>
     </row>
-    <row r="230" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A230" s="518">
         <v>1.224</v>
       </c>
@@ -46406,7 +46544,7 @@
       <c r="AD230" s="519"/>
       <c r="AE230" s="519"/>
     </row>
-    <row r="231" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A231" s="518">
         <v>1.2250000000000001</v>
       </c>
@@ -46471,7 +46609,7 @@
       <c r="AD231" s="519"/>
       <c r="AE231" s="519"/>
     </row>
-    <row r="232" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A232" s="518">
         <v>1.226</v>
       </c>
@@ -46536,7 +46674,7 @@
       <c r="AD232" s="519"/>
       <c r="AE232" s="519"/>
     </row>
-    <row r="233" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A233" s="518">
         <v>1.2270000000000001</v>
       </c>
@@ -46601,7 +46739,7 @@
       <c r="AD233" s="519"/>
       <c r="AE233" s="519"/>
     </row>
-    <row r="234" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A234" s="518">
         <v>1.228</v>
       </c>
@@ -46666,7 +46804,7 @@
       <c r="AD234" s="519"/>
       <c r="AE234" s="519"/>
     </row>
-    <row r="235" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A235" s="518">
         <v>1.2290000000000001</v>
       </c>
@@ -46731,7 +46869,7 @@
       <c r="AD235" s="519"/>
       <c r="AE235" s="519"/>
     </row>
-    <row r="236" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:31" ht="13.5" customHeight="1">
       <c r="A236" s="518">
         <v>1.23</v>
       </c>
@@ -46786,7 +46924,7 @@
         <v>-5.5199999999999999E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A237" s="518">
         <v>1.2310000000000001</v>
       </c>
@@ -46851,7 +46989,7 @@
       <c r="AD237" s="519"/>
       <c r="AE237" s="519"/>
     </row>
-    <row r="238" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A238" s="518">
         <v>1.232</v>
       </c>
@@ -46916,7 +47054,7 @@
       <c r="AD238" s="519"/>
       <c r="AE238" s="519"/>
     </row>
-    <row r="239" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A239" s="518">
         <v>1.2330000000000001</v>
       </c>
@@ -46999,7 +47137,7 @@
       <c r="AD239" s="519"/>
       <c r="AE239" s="519"/>
     </row>
-    <row r="240" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A240" s="518">
         <v>1.234</v>
       </c>
@@ -47082,7 +47220,7 @@
       <c r="AD240" s="519"/>
       <c r="AE240" s="519"/>
     </row>
-    <row r="241" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A241" s="518">
         <v>1.2350000000000001</v>
       </c>
@@ -47165,7 +47303,7 @@
       <c r="AD241" s="519"/>
       <c r="AE241" s="519"/>
     </row>
-    <row r="242" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A242" s="518">
         <v>1.236</v>
       </c>
@@ -47248,7 +47386,7 @@
       <c r="AD242" s="519"/>
       <c r="AE242" s="519"/>
     </row>
-    <row r="243" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A243" s="518">
         <v>1.2370000000000001</v>
       </c>
@@ -47331,7 +47469,7 @@
       <c r="AD243" s="519"/>
       <c r="AE243" s="519"/>
     </row>
-    <row r="244" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A244" s="518">
         <v>1.238</v>
       </c>
@@ -47414,7 +47552,7 @@
       <c r="AD244" s="519"/>
       <c r="AE244" s="519"/>
     </row>
-    <row r="245" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A245" s="518">
         <v>1.2390000000000001</v>
       </c>
@@ -47497,7 +47635,7 @@
       <c r="AD245" s="519"/>
       <c r="AE245" s="519"/>
     </row>
-    <row r="246" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A246" s="518">
         <v>1.24</v>
       </c>
@@ -47580,7 +47718,7 @@
       <c r="AD246" s="519"/>
       <c r="AE246" s="519"/>
     </row>
-    <row r="247" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A247" s="518">
         <v>1.2410000000000001</v>
       </c>
@@ -47663,7 +47801,7 @@
       <c r="AD247" s="519"/>
       <c r="AE247" s="519"/>
     </row>
-    <row r="248" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A248" s="518">
         <v>1.242</v>
       </c>
@@ -47746,7 +47884,7 @@
       <c r="AD248" s="519"/>
       <c r="AE248" s="519"/>
     </row>
-    <row r="249" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A249" s="518">
         <v>1.2430000000000001</v>
       </c>
@@ -47829,7 +47967,7 @@
       <c r="AD249" s="519"/>
       <c r="AE249" s="519"/>
     </row>
-    <row r="250" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A250" s="518">
         <v>1.244</v>
       </c>
@@ -47912,7 +48050,7 @@
       <c r="AD250" s="519"/>
       <c r="AE250" s="519"/>
     </row>
-    <row r="251" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A251" s="518">
         <v>1.2450000000000001</v>
       </c>
@@ -47995,7 +48133,7 @@
       <c r="AD251" s="519"/>
       <c r="AE251" s="519"/>
     </row>
-    <row r="252" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A252" s="518">
         <v>1.246</v>
       </c>
@@ -48060,7 +48198,7 @@
       <c r="AD252" s="519"/>
       <c r="AE252" s="519"/>
     </row>
-    <row r="253" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A253" s="518">
         <v>1.2470000000000001</v>
       </c>
@@ -48125,7 +48263,7 @@
       <c r="AD253" s="519"/>
       <c r="AE253" s="519"/>
     </row>
-    <row r="254" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:31" ht="13.5" customHeight="1">
       <c r="A254" s="518">
         <v>1.248</v>
       </c>
@@ -48180,7 +48318,7 @@
         <v>-5.5199999999999999E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A255" s="518">
         <v>1.2490000000000001</v>
       </c>
@@ -48245,7 +48383,7 @@
       <c r="AD255" s="519"/>
       <c r="AE255" s="519"/>
     </row>
-    <row r="256" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A256" s="518">
         <v>1.25</v>
       </c>
@@ -48310,7 +48448,7 @@
       <c r="AD256" s="519"/>
       <c r="AE256" s="519"/>
     </row>
-    <row r="257" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A257" s="518">
         <v>1.2509999999999999</v>
       </c>
@@ -48375,7 +48513,7 @@
       <c r="AD257" s="519"/>
       <c r="AE257" s="519"/>
     </row>
-    <row r="258" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A258" s="518">
         <v>1.252</v>
       </c>
@@ -48440,7 +48578,7 @@
       <c r="AD258" s="519"/>
       <c r="AE258" s="519"/>
     </row>
-    <row r="259" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A259" s="518">
         <v>1.2529999999999999</v>
       </c>
@@ -48505,7 +48643,7 @@
       <c r="AD259" s="519"/>
       <c r="AE259" s="519"/>
     </row>
-    <row r="260" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A260" s="518">
         <v>1.254</v>
       </c>
@@ -48570,7 +48708,7 @@
       <c r="AD260" s="519"/>
       <c r="AE260" s="519"/>
     </row>
-    <row r="261" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A261" s="518">
         <v>1.2549999999999999</v>
       </c>
@@ -48635,7 +48773,7 @@
       <c r="AD261" s="519"/>
       <c r="AE261" s="519"/>
     </row>
-    <row r="262" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A262" s="518">
         <v>1.256</v>
       </c>
@@ -48700,7 +48838,7 @@
       <c r="AD262" s="519"/>
       <c r="AE262" s="519"/>
     </row>
-    <row r="263" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A263" s="518">
         <v>1.2569999999999999</v>
       </c>
@@ -48765,7 +48903,7 @@
       <c r="AD263" s="519"/>
       <c r="AE263" s="519"/>
     </row>
-    <row r="264" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A264" s="518">
         <v>1.258</v>
       </c>
@@ -48830,7 +48968,7 @@
       <c r="AD264" s="519"/>
       <c r="AE264" s="519"/>
     </row>
-    <row r="265" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A265" s="518">
         <v>1.2589999999999999</v>
       </c>
@@ -48895,7 +49033,7 @@
       <c r="AD265" s="519"/>
       <c r="AE265" s="519"/>
     </row>
-    <row r="266" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A266" s="518">
         <v>1.26</v>
       </c>
@@ -48960,7 +49098,7 @@
       <c r="AD266" s="519"/>
       <c r="AE266" s="519"/>
     </row>
-    <row r="267" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A267" s="518">
         <v>1.2609999999999999</v>
       </c>
@@ -49025,7 +49163,7 @@
       <c r="AD267" s="519"/>
       <c r="AE267" s="519"/>
     </row>
-    <row r="268" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A268" s="518">
         <v>1.262</v>
       </c>
@@ -49090,7 +49228,7 @@
       <c r="AD268" s="519"/>
       <c r="AE268" s="519"/>
     </row>
-    <row r="269" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A269" s="518">
         <v>1.2629999999999999</v>
       </c>
@@ -49155,7 +49293,7 @@
       <c r="AD269" s="519"/>
       <c r="AE269" s="519"/>
     </row>
-    <row r="270" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A270" s="518">
         <v>1.264</v>
       </c>
@@ -49248,7 +49386,7 @@
         <v>-1.11E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A271" s="518">
         <v>1.2649999999999999</v>
       </c>
@@ -49341,7 +49479,7 @@
         <v>-2.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:31" ht="13.5" customHeight="1">
       <c r="A272" s="518">
         <v>1.266</v>
       </c>
@@ -49396,7 +49534,7 @@
         <v>-0.1036</v>
       </c>
     </row>
-    <row r="273" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A273" s="518">
         <v>1.2669999999999999</v>
       </c>
@@ -49479,7 +49617,7 @@
       <c r="AD273" s="519"/>
       <c r="AE273" s="519"/>
     </row>
-    <row r="274" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A274" s="518">
         <v>1.268</v>
       </c>
@@ -49562,7 +49700,7 @@
       <c r="AD274" s="519"/>
       <c r="AE274" s="519"/>
     </row>
-    <row r="275" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A275" s="518">
         <v>1.2689999999999999</v>
       </c>
@@ -49645,7 +49783,7 @@
       <c r="AD275" s="519"/>
       <c r="AE275" s="519"/>
     </row>
-    <row r="276" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A276" s="518">
         <v>1.27</v>
       </c>
@@ -49728,7 +49866,7 @@
       <c r="AD276" s="519"/>
       <c r="AE276" s="519"/>
     </row>
-    <row r="277" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A277" s="518">
         <v>1.2709999999999999</v>
       </c>
@@ -49811,7 +49949,7 @@
       <c r="AD277" s="519"/>
       <c r="AE277" s="519"/>
     </row>
-    <row r="278" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A278" s="518">
         <v>1.272</v>
       </c>
@@ -49894,7 +50032,7 @@
       <c r="AD278" s="519"/>
       <c r="AE278" s="519"/>
     </row>
-    <row r="279" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A279" s="518">
         <v>1.2729999999999999</v>
       </c>
@@ -49987,7 +50125,7 @@
         <v>-3.3099999999999997E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A280" s="518">
         <v>1.274</v>
       </c>
@@ -50080,7 +50218,7 @@
         <v>-1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:31" ht="13.5" customHeight="1">
       <c r="A281" s="518">
         <v>1.2749999999999999</v>
       </c>
@@ -50135,7 +50273,7 @@
         <v>-5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A282" s="518">
         <v>1.276</v>
       </c>
@@ -50200,7 +50338,7 @@
       <c r="AD282" s="519"/>
       <c r="AE282" s="519"/>
     </row>
-    <row r="283" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A283" s="518">
         <v>1.2769999999999999</v>
       </c>
@@ -50265,7 +50403,7 @@
       <c r="AD283" s="519"/>
       <c r="AE283" s="519"/>
     </row>
-    <row r="284" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A284" s="518">
         <v>1.278</v>
       </c>
@@ -50330,7 +50468,7 @@
       <c r="AD284" s="519"/>
       <c r="AE284" s="519"/>
     </row>
-    <row r="285" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A285" s="518">
         <v>1.2789999999999999</v>
       </c>
@@ -50395,7 +50533,7 @@
       <c r="AD285" s="519"/>
       <c r="AE285" s="519"/>
     </row>
-    <row r="286" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A286" s="518">
         <v>1.28</v>
       </c>
@@ -50460,7 +50598,7 @@
       <c r="AD286" s="519"/>
       <c r="AE286" s="519"/>
     </row>
-    <row r="287" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A287" s="518">
         <v>1.2809999999999999</v>
       </c>
@@ -50525,7 +50663,7 @@
       <c r="AD287" s="519"/>
       <c r="AE287" s="519"/>
     </row>
-    <row r="288" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A288" s="518">
         <v>1.282</v>
       </c>
@@ -50590,7 +50728,7 @@
       <c r="AD288" s="519"/>
       <c r="AE288" s="519"/>
     </row>
-    <row r="289" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A289" s="518">
         <v>1.2829999999999999</v>
       </c>
@@ -50655,7 +50793,7 @@
       <c r="AD289" s="519"/>
       <c r="AE289" s="519"/>
     </row>
-    <row r="290" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A290" s="518">
         <v>1.284</v>
       </c>
@@ -50720,7 +50858,7 @@
       <c r="AD290" s="519"/>
       <c r="AE290" s="519"/>
     </row>
-    <row r="291" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A291" s="518">
         <v>1.2849999999999999</v>
       </c>
@@ -50785,7 +50923,7 @@
       <c r="AD291" s="519"/>
       <c r="AE291" s="519"/>
     </row>
-    <row r="292" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A292" s="518">
         <v>1.286</v>
       </c>
@@ -50850,7 +50988,7 @@
       <c r="AD292" s="519"/>
       <c r="AE292" s="519"/>
     </row>
-    <row r="293" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A293" s="518">
         <v>1.2869999999999999</v>
       </c>
@@ -50915,7 +51053,7 @@
       <c r="AD293" s="519"/>
       <c r="AE293" s="519"/>
     </row>
-    <row r="294" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A294" s="518">
         <v>1.288</v>
       </c>
@@ -51000,7 +51138,7 @@
         <v>-5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:31" ht="13.5" customHeight="1">
       <c r="A295" s="518">
         <v>1.2889999999999999</v>
       </c>
@@ -51055,7 +51193,7 @@
         <v>-6.0900000000000003E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A296" s="518">
         <v>1.29</v>
       </c>
@@ -51120,7 +51258,7 @@
       <c r="AD296" s="519"/>
       <c r="AE296" s="519"/>
     </row>
-    <row r="297" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A297" s="518">
         <v>1.2909999999999999</v>
       </c>
@@ -51203,7 +51341,7 @@
       <c r="AD297" s="519"/>
       <c r="AE297" s="519"/>
     </row>
-    <row r="298" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A298" s="518">
         <v>1.292</v>
       </c>
@@ -51286,7 +51424,7 @@
       <c r="AD298" s="519"/>
       <c r="AE298" s="519"/>
     </row>
-    <row r="299" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A299" s="518">
         <v>1.2929999999999999</v>
       </c>
@@ -51369,7 +51507,7 @@
       <c r="AD299" s="519"/>
       <c r="AE299" s="519"/>
     </row>
-    <row r="300" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A300" s="518">
         <v>1.294</v>
       </c>
@@ -51452,7 +51590,7 @@
       <c r="AD300" s="519"/>
       <c r="AE300" s="519"/>
     </row>
-    <row r="301" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A301" s="518">
         <v>1.2949999999999999</v>
       </c>
@@ -51535,7 +51673,7 @@
       <c r="AD301" s="519"/>
       <c r="AE301" s="519"/>
     </row>
-    <row r="302" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A302" s="518">
         <v>1.296</v>
       </c>
@@ -51618,7 +51756,7 @@
       <c r="AD302" s="519"/>
       <c r="AE302" s="519"/>
     </row>
-    <row r="303" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:31" ht="13.5" customHeight="1">
       <c r="A303" s="518">
         <v>1.2969999999999999</v>
       </c>
@@ -51673,7 +51811,7 @@
         <v>-6.0900000000000003E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A304" s="518">
         <v>1.298</v>
       </c>
@@ -51738,7 +51876,7 @@
       <c r="AD304" s="519"/>
       <c r="AE304" s="519"/>
     </row>
-    <row r="305" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A305" s="518">
         <v>1.2989999999999999</v>
       </c>
@@ -51813,7 +51951,7 @@
       <c r="AD305" s="519"/>
       <c r="AE305" s="519"/>
     </row>
-    <row r="306" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A306" s="518">
         <v>1.3</v>
       </c>
@@ -51888,7 +52026,7 @@
       <c r="AD306" s="519"/>
       <c r="AE306" s="519"/>
     </row>
-    <row r="307" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A307" s="518">
         <v>1.3009999999999999</v>
       </c>
@@ -51963,7 +52101,7 @@
       <c r="AD307" s="519"/>
       <c r="AE307" s="519"/>
     </row>
-    <row r="308" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A308" s="518">
         <v>1.302</v>
       </c>
@@ -52038,7 +52176,7 @@
       <c r="AD308" s="519"/>
       <c r="AE308" s="519"/>
     </row>
-    <row r="309" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A309" s="518">
         <v>1.3029999999999999</v>
       </c>
@@ -52113,7 +52251,7 @@
       <c r="AD309" s="519"/>
       <c r="AE309" s="519"/>
     </row>
-    <row r="310" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A310" s="518">
         <v>1.304</v>
       </c>
@@ -52188,7 +52326,7 @@
       <c r="AD310" s="519"/>
       <c r="AE310" s="519"/>
     </row>
-    <row r="311" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A311" s="518">
         <v>1.3049999999999999</v>
       </c>
@@ -52281,7 +52419,7 @@
         <v>-6.6500000000000004E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A312" s="518">
         <v>1.306</v>
       </c>
@@ -52374,7 +52512,7 @@
         <v>-6.5299999999999997E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A313" s="518">
         <v>1.3069999999999999</v>
       </c>
@@ -52449,7 +52587,7 @@
         <v>-3.7699999999999997E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A314" s="518">
         <v>1.3080000000000001</v>
       </c>
@@ -52542,7 +52680,7 @@
         <v>-1.9599999999999999E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:31" ht="13.5" customHeight="1">
       <c r="A315" s="518">
         <v>1.3089999999999999</v>
       </c>
@@ -52597,7 +52735,7 @@
         <v>-2.9600000000000001E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A316" s="518">
         <v>1.31</v>
       </c>
@@ -52672,7 +52810,7 @@
       <c r="AD316" s="519"/>
       <c r="AE316" s="519"/>
     </row>
-    <row r="317" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A317" s="518">
         <v>1.3109999999999999</v>
       </c>
@@ -52747,7 +52885,7 @@
       <c r="AD317" s="519"/>
       <c r="AE317" s="519"/>
     </row>
-    <row r="318" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A318" s="518">
         <v>1.3120000000000001</v>
       </c>
@@ -52822,7 +52960,7 @@
       <c r="AD318" s="519"/>
       <c r="AE318" s="519"/>
     </row>
-    <row r="319" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A319" s="518">
         <v>1.3129999999999999</v>
       </c>
@@ -52897,7 +53035,7 @@
       <c r="AD319" s="519"/>
       <c r="AE319" s="519"/>
     </row>
-    <row r="320" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:31" ht="13.5" customHeight="1">
       <c r="A320" s="518">
         <v>1.3140000000000001</v>
       </c>
@@ -52952,7 +53090,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="321" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A321" s="518">
         <v>1.3149999999999999</v>
       </c>
@@ -53035,7 +53173,7 @@
       <c r="AD321" s="519"/>
       <c r="AE321" s="519"/>
     </row>
-    <row r="322" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A322" s="518">
         <v>1.3160000000000001</v>
       </c>
@@ -53118,7 +53256,7 @@
       <c r="AD322" s="519"/>
       <c r="AE322" s="519"/>
     </row>
-    <row r="323" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A323" s="518">
         <v>1.3169999999999999</v>
       </c>
@@ -53201,7 +53339,7 @@
       <c r="AD323" s="519"/>
       <c r="AE323" s="519"/>
     </row>
-    <row r="324" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A324" s="518">
         <v>1.3180000000000001</v>
       </c>
@@ -53284,7 +53422,7 @@
       <c r="AD324" s="519"/>
       <c r="AE324" s="519"/>
     </row>
-    <row r="325" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A325" s="518">
         <v>1.319</v>
       </c>
@@ -53367,7 +53505,7 @@
       <c r="AD325" s="519"/>
       <c r="AE325" s="519"/>
     </row>
-    <row r="326" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A326" s="518">
         <v>1.32</v>
       </c>
@@ -53450,7 +53588,7 @@
       <c r="AD326" s="519"/>
       <c r="AE326" s="519"/>
     </row>
-    <row r="327" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A327" s="518">
         <v>1.321</v>
       </c>
@@ -53533,7 +53671,7 @@
       <c r="AD327" s="519"/>
       <c r="AE327" s="519"/>
     </row>
-    <row r="328" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A328" s="518">
         <v>1.3220000000000001</v>
       </c>
@@ -53616,7 +53754,7 @@
       <c r="AD328" s="519"/>
       <c r="AE328" s="519"/>
     </row>
-    <row r="329" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A329" s="518">
         <v>1.323</v>
       </c>
@@ -53709,7 +53847,7 @@
         <v>-3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A330" s="518">
         <v>1.3240000000000001</v>
       </c>
@@ -53802,7 +53940,7 @@
         <v>-1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:31" ht="13.5" customHeight="1">
       <c r="A331" s="518">
         <v>1.325</v>
       </c>
@@ -53857,7 +53995,7 @@
         <v>0.12770000000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A332" s="518">
         <v>1.3260000000000001</v>
       </c>
@@ -53940,7 +54078,7 @@
       <c r="AD332" s="519"/>
       <c r="AE332" s="519"/>
     </row>
-    <row r="333" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A333" s="518">
         <v>1.327</v>
       </c>
@@ -54023,7 +54161,7 @@
       <c r="AD333" s="519"/>
       <c r="AE333" s="519"/>
     </row>
-    <row r="334" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A334" s="518">
         <v>1.3280000000000001</v>
       </c>
@@ -54106,7 +54244,7 @@
       <c r="AD334" s="519"/>
       <c r="AE334" s="519"/>
     </row>
-    <row r="335" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:31" ht="13.5" customHeight="1">
       <c r="A335" s="518">
         <v>1.329</v>
       </c>
@@ -54161,7 +54299,7 @@
         <v>-1.6299999999999999E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A336" s="518">
         <v>1.33</v>
       </c>
@@ -54226,7 +54364,7 @@
       <c r="AD336" s="519"/>
       <c r="AE336" s="519"/>
     </row>
-    <row r="337" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A337" s="518">
         <v>1.331</v>
       </c>
@@ -54291,7 +54429,7 @@
       <c r="AD337" s="519"/>
       <c r="AE337" s="519"/>
     </row>
-    <row r="338" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A338" s="518">
         <v>1.3320000000000001</v>
       </c>
@@ -54356,7 +54494,7 @@
       <c r="AD338" s="519"/>
       <c r="AE338" s="519"/>
     </row>
-    <row r="339" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A339" s="518">
         <v>1.333</v>
       </c>
@@ -54421,7 +54559,7 @@
       <c r="AD339" s="519"/>
       <c r="AE339" s="519"/>
     </row>
-    <row r="340" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A340" s="518">
         <v>1.3340000000000001</v>
       </c>
@@ -54486,7 +54624,7 @@
       <c r="AD340" s="519"/>
       <c r="AE340" s="519"/>
     </row>
-    <row r="341" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A341" s="518">
         <v>1.335</v>
       </c>
@@ -54551,7 +54689,7 @@
       <c r="AD341" s="519"/>
       <c r="AE341" s="519"/>
     </row>
-    <row r="342" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A342" s="518">
         <v>1.3360000000000001</v>
       </c>
@@ -54616,7 +54754,7 @@
       <c r="AD342" s="519"/>
       <c r="AE342" s="519"/>
     </row>
-    <row r="343" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A343" s="518">
         <v>1.337</v>
       </c>
@@ -54681,7 +54819,7 @@
       <c r="AD343" s="519"/>
       <c r="AE343" s="519"/>
     </row>
-    <row r="344" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A344" s="518">
         <v>1.3380000000000001</v>
       </c>
@@ -54746,7 +54884,7 @@
       <c r="AD344" s="519"/>
       <c r="AE344" s="519"/>
     </row>
-    <row r="345" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A345" s="518">
         <v>1.339</v>
       </c>
@@ -54811,7 +54949,7 @@
       <c r="AD345" s="519"/>
       <c r="AE345" s="519"/>
     </row>
-    <row r="346" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A346" s="518">
         <v>1.34</v>
       </c>
@@ -54876,7 +55014,7 @@
       <c r="AD346" s="519"/>
       <c r="AE346" s="519"/>
     </row>
-    <row r="347" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A347" s="518">
         <v>1.341</v>
       </c>
@@ -54941,7 +55079,7 @@
       <c r="AD347" s="519"/>
       <c r="AE347" s="519"/>
     </row>
-    <row r="348" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A348" s="518">
         <v>1.3420000000000001</v>
       </c>
@@ -55006,7 +55144,7 @@
       <c r="AD348" s="519"/>
       <c r="AE348" s="519"/>
     </row>
-    <row r="349" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A349" s="518">
         <v>1.343</v>
       </c>
@@ -55071,7 +55209,7 @@
       <c r="AD349" s="519"/>
       <c r="AE349" s="519"/>
     </row>
-    <row r="350" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A350" s="518">
         <v>1.3440000000000001</v>
       </c>
@@ -55136,7 +55274,7 @@
       <c r="AD350" s="519"/>
       <c r="AE350" s="519"/>
     </row>
-    <row r="351" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A351" s="518">
         <v>1.345</v>
       </c>
@@ -55201,7 +55339,7 @@
       <c r="AD351" s="519"/>
       <c r="AE351" s="519"/>
     </row>
-    <row r="352" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A352" s="518">
         <v>1.3460000000000001</v>
       </c>
@@ -55266,7 +55404,7 @@
       <c r="AD352" s="519"/>
       <c r="AE352" s="519"/>
     </row>
-    <row r="353" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A353" s="518">
         <v>1.347</v>
       </c>
@@ -55331,7 +55469,7 @@
       <c r="AD353" s="519"/>
       <c r="AE353" s="519"/>
     </row>
-    <row r="354" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A354" s="518">
         <v>1.3480000000000001</v>
       </c>
@@ -55396,7 +55534,7 @@
       <c r="AD354" s="519"/>
       <c r="AE354" s="519"/>
     </row>
-    <row r="355" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A355" s="518">
         <v>1.349</v>
       </c>
@@ -55461,7 +55599,7 @@
       <c r="AD355" s="519"/>
       <c r="AE355" s="519"/>
     </row>
-    <row r="356" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A356" s="518">
         <v>1.35</v>
       </c>
@@ -55526,7 +55664,7 @@
       <c r="AD356" s="519"/>
       <c r="AE356" s="519"/>
     </row>
-    <row r="357" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A357" s="518">
         <v>1.351</v>
       </c>
@@ -55591,7 +55729,7 @@
       <c r="AD357" s="519"/>
       <c r="AE357" s="519"/>
     </row>
-    <row r="358" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A358" s="518">
         <v>1.3520000000000001</v>
       </c>
@@ -55656,7 +55794,7 @@
       <c r="AD358" s="519"/>
       <c r="AE358" s="519"/>
     </row>
-    <row r="359" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A359" s="518">
         <v>1.353</v>
       </c>
@@ -55721,7 +55859,7 @@
       <c r="AD359" s="519"/>
       <c r="AE359" s="519"/>
     </row>
-    <row r="360" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A360" s="518">
         <v>1.3540000000000001</v>
       </c>
@@ -55786,7 +55924,7 @@
       <c r="AD360" s="519"/>
       <c r="AE360" s="519"/>
     </row>
-    <row r="361" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A361" s="518">
         <v>1.355</v>
       </c>
@@ -55851,7 +55989,7 @@
       <c r="AD361" s="519"/>
       <c r="AE361" s="519"/>
     </row>
-    <row r="362" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A362" s="518">
         <v>1.3560000000000001</v>
       </c>
@@ -55916,7 +56054,7 @@
       <c r="AD362" s="519"/>
       <c r="AE362" s="519"/>
     </row>
-    <row r="363" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A363" s="518">
         <v>1.357</v>
       </c>
@@ -55981,7 +56119,7 @@
       <c r="AD363" s="519"/>
       <c r="AE363" s="519"/>
     </row>
-    <row r="364" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A364" s="518">
         <v>1.3580000000000001</v>
       </c>
@@ -56046,7 +56184,7 @@
       <c r="AD364" s="519"/>
       <c r="AE364" s="519"/>
     </row>
-    <row r="365" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A365" s="518">
         <v>1.359</v>
       </c>
@@ -56111,7 +56249,7 @@
       <c r="AD365" s="519"/>
       <c r="AE365" s="519"/>
     </row>
-    <row r="366" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A366" s="518">
         <v>1.36</v>
       </c>
@@ -56176,7 +56314,7 @@
       <c r="AD366" s="519"/>
       <c r="AE366" s="519"/>
     </row>
-    <row r="367" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A367" s="518">
         <v>1.361</v>
       </c>
@@ -56269,7 +56407,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="368" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:31" ht="13.5" customHeight="1">
       <c r="A368" s="518">
         <v>1.3620000000000001</v>
       </c>
@@ -56324,7 +56462,7 @@
         <v>-5.9700000000000003E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A369" s="518">
         <v>1.363</v>
       </c>
@@ -56399,7 +56537,7 @@
       <c r="AD369" s="519"/>
       <c r="AE369" s="519"/>
     </row>
-    <row r="370" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A370" s="518">
         <v>1.3640000000000001</v>
       </c>
@@ -56482,7 +56620,7 @@
       <c r="AD370" s="519"/>
       <c r="AE370" s="519"/>
     </row>
-    <row r="371" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A371" s="518">
         <v>1.365</v>
       </c>
@@ -56565,7 +56703,7 @@
       <c r="AD371" s="519"/>
       <c r="AE371" s="519"/>
     </row>
-    <row r="372" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A372" s="518">
         <v>1.3660000000000001</v>
       </c>
@@ -56648,7 +56786,7 @@
       <c r="AD372" s="519"/>
       <c r="AE372" s="519"/>
     </row>
-    <row r="373" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A373" s="518">
         <v>1.367</v>
       </c>
@@ -56731,7 +56869,7 @@
       <c r="AD373" s="519"/>
       <c r="AE373" s="519"/>
     </row>
-    <row r="374" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A374" s="518">
         <v>1.3680000000000001</v>
       </c>
@@ -56814,7 +56952,7 @@
       <c r="AD374" s="519"/>
       <c r="AE374" s="519"/>
     </row>
-    <row r="375" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A375" s="518">
         <v>1.369</v>
       </c>
@@ -56897,7 +57035,7 @@
       <c r="AD375" s="519"/>
       <c r="AE375" s="519"/>
     </row>
-    <row r="376" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A376" s="518">
         <v>1.37</v>
       </c>
@@ -56980,7 +57118,7 @@
       <c r="AD376" s="519"/>
       <c r="AE376" s="519"/>
     </row>
-    <row r="377" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A377" s="518">
         <v>1.371</v>
       </c>
@@ -57063,7 +57201,7 @@
       <c r="AD377" s="519"/>
       <c r="AE377" s="519"/>
     </row>
-    <row r="378" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A378" s="518">
         <v>1.3720000000000001</v>
       </c>
@@ -57146,7 +57284,7 @@
       <c r="AD378" s="519"/>
       <c r="AE378" s="519"/>
     </row>
-    <row r="379" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A379" s="518">
         <v>1.373</v>
       </c>
@@ -57229,7 +57367,7 @@
       <c r="AD379" s="519"/>
       <c r="AE379" s="519"/>
     </row>
-    <row r="380" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A380" s="518">
         <v>1.3740000000000001</v>
       </c>
@@ -57312,7 +57450,7 @@
       <c r="AD380" s="519"/>
       <c r="AE380" s="519"/>
     </row>
-    <row r="381" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:31" ht="13.5" customHeight="1">
       <c r="A381" s="518">
         <v>1.375</v>
       </c>
@@ -57367,7 +57505,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="382" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A382" s="518">
         <v>1.3759999999999999</v>
       </c>
@@ -57450,7 +57588,7 @@
       <c r="AD382" s="519"/>
       <c r="AE382" s="519"/>
     </row>
-    <row r="383" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A383" s="518">
         <v>1.377</v>
       </c>
@@ -57533,7 +57671,7 @@
       <c r="AD383" s="519"/>
       <c r="AE383" s="519"/>
     </row>
-    <row r="384" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A384" s="518">
         <v>1.3779999999999999</v>
       </c>
@@ -57616,7 +57754,7 @@
       <c r="AD384" s="519"/>
       <c r="AE384" s="519"/>
     </row>
-    <row r="385" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A385" s="518">
         <v>1.379</v>
       </c>
@@ -57699,7 +57837,7 @@
       <c r="AD385" s="519"/>
       <c r="AE385" s="519"/>
     </row>
-    <row r="386" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A386" s="518">
         <v>1.38</v>
       </c>
@@ -57782,7 +57920,7 @@
       <c r="AD386" s="519"/>
       <c r="AE386" s="519"/>
     </row>
-    <row r="387" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A387" s="518">
         <v>1.381</v>
       </c>
@@ -57865,7 +58003,7 @@
       <c r="AD387" s="519"/>
       <c r="AE387" s="519"/>
     </row>
-    <row r="388" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A388" s="518">
         <v>1.3819999999999999</v>
       </c>
@@ -57948,7 +58086,7 @@
       <c r="AD388" s="519"/>
       <c r="AE388" s="519"/>
     </row>
-    <row r="389" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A389" s="518">
         <v>1.383</v>
       </c>
@@ -58031,7 +58169,7 @@
       <c r="AD389" s="519"/>
       <c r="AE389" s="519"/>
     </row>
-    <row r="390" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A390" s="518">
         <v>1.3839999999999999</v>
       </c>
@@ -58114,7 +58252,7 @@
       <c r="AD390" s="519"/>
       <c r="AE390" s="519"/>
     </row>
-    <row r="391" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A391" s="518">
         <v>1.385</v>
       </c>
@@ -58197,7 +58335,7 @@
       <c r="AD391" s="519"/>
       <c r="AE391" s="519"/>
     </row>
-    <row r="392" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A392" s="518">
         <v>1.3859999999999999</v>
       </c>
@@ -58280,7 +58418,7 @@
       <c r="AD392" s="519"/>
       <c r="AE392" s="519"/>
     </row>
-    <row r="393" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A393" s="518">
         <v>1.387</v>
       </c>
@@ -58363,7 +58501,7 @@
       <c r="AD393" s="519"/>
       <c r="AE393" s="519"/>
     </row>
-    <row r="394" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A394" s="518">
         <v>1.3879999999999999</v>
       </c>
@@ -58456,7 +58594,7 @@
         <v>-1.5900000000000001E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:31" ht="13.5" customHeight="1">
       <c r="A395" s="518">
         <v>1.389</v>
       </c>
@@ -58511,7 +58649,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="396" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A396" s="518">
         <v>1.39</v>
       </c>
@@ -58576,7 +58714,7 @@
       <c r="AD396" s="519"/>
       <c r="AE396" s="519"/>
     </row>
-    <row r="397" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A397" s="518">
         <v>1.391</v>
       </c>
@@ -58641,7 +58779,7 @@
       <c r="AD397" s="519"/>
       <c r="AE397" s="519"/>
     </row>
-    <row r="398" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A398" s="518">
         <v>1.3919999999999999</v>
       </c>
@@ -58706,7 +58844,7 @@
       <c r="AD398" s="519"/>
       <c r="AE398" s="519"/>
     </row>
-    <row r="399" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A399" s="518">
         <v>1.393</v>
       </c>
@@ -58771,7 +58909,7 @@
       <c r="AD399" s="519"/>
       <c r="AE399" s="519"/>
     </row>
-    <row r="400" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:31" ht="13.5" customHeight="1">
       <c r="A400" s="518">
         <v>1.3939999999999999</v>
       </c>
@@ -58826,7 +58964,7 @@
         <v>-7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="401" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A401" s="518">
         <v>1.395</v>
       </c>
@@ -58909,7 +59047,7 @@
       <c r="AD401" s="519"/>
       <c r="AE401" s="519"/>
     </row>
-    <row r="402" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A402" s="518">
         <v>1.3959999999999999</v>
       </c>
@@ -58992,7 +59130,7 @@
       <c r="AD402" s="519"/>
       <c r="AE402" s="519"/>
     </row>
-    <row r="403" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A403" s="518">
         <v>1.397</v>
       </c>
@@ -59075,7 +59213,7 @@
       <c r="AD403" s="519"/>
       <c r="AE403" s="519"/>
     </row>
-    <row r="404" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A404" s="518">
         <v>1.3979999999999999</v>
       </c>
@@ -59168,7 +59306,7 @@
         <v>-7.8600000000000003E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A405" s="518">
         <v>1.399</v>
       </c>
@@ -59261,7 +59399,7 @@
         <v>-2.47E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A406" s="518">
         <v>1.4</v>
       </c>
@@ -59354,7 +59492,7 @@
         <v>-5.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A407" s="518">
         <v>1.401</v>
       </c>
@@ -59447,7 +59585,7 @@
         <v>-7.8600000000000003E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A408" s="518">
         <v>1.4019999999999999</v>
       </c>
@@ -59540,7 +59678,7 @@
         <v>-4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A409" s="518">
         <v>1.403</v>
       </c>
@@ -59633,7 +59771,7 @@
         <v>-7.3200000000000001E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A410" s="518">
         <v>1.4039999999999999</v>
       </c>
@@ -59726,7 +59864,7 @@
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A411" s="518">
         <v>1.405</v>
       </c>
@@ -59819,7 +59957,7 @@
         <v>1.06E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A412" s="518">
         <v>1.4059999999999999</v>
       </c>
@@ -59912,7 +60050,7 @@
         <v>-3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A413" s="518">
         <v>1.407</v>
       </c>
@@ -60005,7 +60143,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="414" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A414" s="518">
         <v>1.4079999999999999</v>
       </c>
@@ -60098,7 +60236,7 @@
         <v>-3.8E-3</v>
       </c>
     </row>
-    <row r="415" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:31" ht="13.5" hidden="1" customHeight="1">
       <c r="A415" s="518">
         <v>1.409</v>
       </c>
@@ -60191,7 +60329,7 @@
         <v>-8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="416" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:31" ht="13.5" customHeight="1">
       <c r="A416" s="518">
         <v>1.41</v>
       </c>
@@ -60246,7 +60384,7 @@
         <v>-6.1499999999999999E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A417" s="518">
         <v>1.411</v>
       </c>
@@ -60329,7 +60467,7 @@
       <c r="AD417" s="519"/>
       <c r="AE417" s="519"/>
     </row>
-    <row r="418" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A418" s="518">
         <v>1.4119999999999999</v>
       </c>
@@ -60412,7 +60550,7 @@
       <c r="AD418" s="519"/>
       <c r="AE418" s="519"/>
     </row>
-    <row r="419" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A419" s="518">
         <v>1.413</v>
       </c>
@@ -60495,7 +60633,7 @@
       <c r="AD419" s="519"/>
       <c r="AE419" s="519"/>
     </row>
-    <row r="420" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A420" s="518">
         <v>1.4139999999999999</v>
       </c>
@@ -60578,7 +60716,7 @@
       <c r="AD420" s="519"/>
       <c r="AE420" s="519"/>
     </row>
-    <row r="421" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A421" s="518">
         <v>1.415</v>
       </c>
@@ -60661,7 +60799,7 @@
       <c r="AD421" s="519"/>
       <c r="AE421" s="519"/>
     </row>
-    <row r="422" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A422" s="518">
         <v>1.4159999999999999</v>
       </c>
@@ -60744,7 +60882,7 @@
       <c r="AD422" s="519"/>
       <c r="AE422" s="519"/>
     </row>
-    <row r="423" spans="1:31" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:31" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A423" s="518">
         <v>1.417</v>
       </c>
@@ -60827,12 +60965,17 @@
       <c r="AD423" s="519"/>
       <c r="AE423" s="519"/>
     </row>
-    <row r="424" spans="1:31" ht="13.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:31" ht="13.5" customHeight="1">
       <c r="A424" s="518"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:AE423">
-    <sortState ref="A7:AE398">
+  <autoFilter ref="A6:AE423" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Lifecycle"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AE398">
       <sortCondition ref="A6:A405"/>
     </sortState>
   </autoFilter>
@@ -60855,7 +60998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -60867,33 +61010,33 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="115" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" style="115" customWidth="1"/>
+    <col min="1" max="1" width="30.86328125" style="115" customWidth="1"/>
+    <col min="2" max="2" width="51.1328125" style="115" customWidth="1"/>
     <col min="3" max="16384" width="9" style="115"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" customHeight="1">
       <c r="A1" s="545" t="s">
         <v>547</v>
       </c>
       <c r="B1" s="545"/>
     </row>
-    <row r="3" spans="1:8" s="117" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="117" customFormat="1" ht="123" customHeight="1">
       <c r="A3" s="546" t="s">
         <v>693</v>
       </c>
       <c r="B3" s="546"/>
     </row>
-    <row r="4" spans="1:8" s="117" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="117" customFormat="1" ht="12.95" customHeight="1"/>
+    <row r="5" spans="1:8" ht="12.95" customHeight="1"/>
+    <row r="6" spans="1:8" ht="12.95" customHeight="1"/>
+    <row r="7" spans="1:8" ht="12.95" customHeight="1"/>
+    <row r="8" spans="1:8" ht="12.95" customHeight="1"/>
+    <row r="9" spans="1:8" ht="12.95" customHeight="1"/>
+    <row r="10" spans="1:8" ht="12.95" customHeight="1"/>
+    <row r="11" spans="1:8" ht="12.95" customHeight="1">
       <c r="C11" s="119"/>
       <c r="D11" s="119"/>
       <c r="E11" s="119"/>
@@ -60901,40 +61044,40 @@
       <c r="G11" s="119"/>
       <c r="H11" s="119"/>
     </row>
-    <row r="12" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" ht="12.95" customHeight="1"/>
+    <row r="13" spans="1:8" ht="12.95" customHeight="1"/>
+    <row r="14" spans="1:8" ht="12.95" customHeight="1"/>
+    <row r="15" spans="1:8" ht="12.95" customHeight="1"/>
+    <row r="16" spans="1:8" ht="12.95" customHeight="1"/>
+    <row r="17" ht="12.95" customHeight="1"/>
+    <row r="18" ht="12.95" customHeight="1"/>
+    <row r="19" ht="12.95" customHeight="1"/>
+    <row r="20" ht="12.95" customHeight="1"/>
+    <row r="21" ht="12.95" customHeight="1"/>
+    <row r="22" ht="12.95" customHeight="1"/>
+    <row r="23" ht="12.95" customHeight="1"/>
+    <row r="24" ht="12.95" customHeight="1"/>
+    <row r="25" ht="12.95" customHeight="1"/>
+    <row r="26" ht="12.95" customHeight="1"/>
+    <row r="27" ht="12.95" customHeight="1"/>
+    <row r="28" ht="12.95" customHeight="1"/>
+    <row r="29" ht="12.95" customHeight="1"/>
+    <row r="30" ht="12.95" customHeight="1"/>
+    <row r="31" ht="12.95" customHeight="1"/>
+    <row r="32" ht="12.95" customHeight="1"/>
+    <row r="33" ht="12.95" customHeight="1"/>
+    <row r="34" ht="12.95" customHeight="1"/>
+    <row r="35" ht="12.95" customHeight="1"/>
+    <row r="36" ht="12.95" customHeight="1"/>
+    <row r="37" ht="12.95" customHeight="1"/>
+    <row r="38" ht="12.95" customHeight="1"/>
+    <row r="39" ht="12.95" customHeight="1"/>
+    <row r="40" ht="12.95" customHeight="1"/>
+    <row r="41" ht="12.95" customHeight="1"/>
+    <row r="42" ht="12.95" customHeight="1"/>
+    <row r="43" ht="12.95" customHeight="1"/>
+    <row r="44" ht="12.95" customHeight="1"/>
+    <row r="45" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
@@ -60950,7 +61093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -60962,18 +61105,18 @@
       <selection pane="bottomLeft" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="115" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="115" customWidth="1"/>
-    <col min="3" max="3" width="70.5703125" style="115" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="115" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="115" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" style="115" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" style="115" customWidth="1"/>
+    <col min="3" max="3" width="70.59765625" style="115" customWidth="1"/>
+    <col min="4" max="4" width="34.86328125" style="115" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" style="115" customWidth="1"/>
     <col min="6" max="7" width="9" style="115" customWidth="1"/>
     <col min="8" max="16384" width="9" style="115"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="545" t="s">
         <v>563</v>
       </c>
@@ -60982,7 +61125,7 @@
       <c r="D1" s="545"/>
       <c r="E1" s="545"/>
     </row>
-    <row r="3" spans="1:5" s="117" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="117" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="120" t="s">
         <v>26</v>
       </c>
@@ -60999,7 +61142,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="117" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="117" customFormat="1" ht="60" customHeight="1">
       <c r="A4" s="121" t="s">
         <v>565</v>
       </c>
@@ -61016,7 +61159,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="60" customHeight="1">
       <c r="A5" s="125" t="s">
         <v>4</v>
       </c>
@@ -61033,7 +61176,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="63.75">
       <c r="A6" s="129" t="s">
         <v>4</v>
       </c>
@@ -61050,7 +61193,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="63.75">
       <c r="A7" s="133" t="s">
         <v>4</v>
       </c>
@@ -61067,7 +61210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="178.5">
       <c r="A8" s="129" t="s">
         <v>4</v>
       </c>
@@ -61084,7 +61227,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="60" customHeight="1">
       <c r="A9" s="125" t="s">
         <v>4</v>
       </c>
@@ -61101,7 +61244,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="191.25">
       <c r="A10" s="129" t="s">
         <v>4</v>
       </c>
@@ -61118,7 +61261,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="191.25">
       <c r="A11" s="125" t="s">
         <v>30</v>
       </c>
@@ -61135,7 +61278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="171" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="153">
       <c r="A12" s="137" t="s">
         <v>30</v>
       </c>
@@ -61152,7 +61295,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="89.25">
       <c r="A13" s="141" t="s">
         <v>30</v>
       </c>
@@ -61169,23 +61312,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" ht="60" customHeight="1"/>
+    <row r="15" spans="1:5" ht="60" customHeight="1"/>
+    <row r="16" spans="1:5" ht="60" customHeight="1"/>
+    <row r="17" ht="60" customHeight="1"/>
+    <row r="18" ht="60" customHeight="1"/>
+    <row r="19" ht="60" customHeight="1"/>
+    <row r="20" ht="60" customHeight="1"/>
+    <row r="21" ht="60" customHeight="1"/>
+    <row r="22" ht="60" customHeight="1"/>
+    <row r="23" ht="60" customHeight="1"/>
+    <row r="24" ht="60" customHeight="1"/>
+    <row r="25" ht="60" customHeight="1"/>
+    <row r="26" ht="60" customHeight="1"/>
+    <row r="27" ht="60" customHeight="1"/>
+    <row r="28" ht="60" customHeight="1"/>
+    <row r="29" ht="60" customHeight="1"/>
+    <row r="30" ht="60" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -61202,7 +61345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -61214,28 +61357,28 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="115" customWidth="1"/>
+    <col min="1" max="1" width="35.1328125" style="115" customWidth="1"/>
     <col min="2" max="2" width="73" style="115" customWidth="1"/>
     <col min="3" max="4" width="9" style="115" customWidth="1"/>
     <col min="5" max="16384" width="9" style="115"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" customHeight="1">
       <c r="A1" s="545" t="s">
         <v>535</v>
       </c>
       <c r="B1" s="545"/>
     </row>
-    <row r="3" spans="1:3" s="117" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="117" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A3" s="546" t="s">
         <v>580</v>
       </c>
       <c r="B3" s="546"/>
       <c r="C3" s="115"/>
     </row>
-    <row r="4" spans="1:3" s="117" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="117" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="147" t="s">
         <v>536</v>
       </c>
@@ -61243,7 +61386,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="30" customHeight="1">
       <c r="A5" s="148" t="s">
         <v>581</v>
       </c>
@@ -61251,7 +61394,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30" customHeight="1">
       <c r="A6" s="145" t="s">
         <v>582</v>
       </c>
@@ -61259,7 +61402,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="30" customHeight="1">
       <c r="A7" s="149" t="s">
         <v>583</v>
       </c>
@@ -61267,7 +61410,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" customHeight="1">
       <c r="A8" s="150" t="s">
         <v>539</v>
       </c>
@@ -61275,7 +61418,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30" customHeight="1">
       <c r="A9" s="149" t="s">
         <v>541</v>
       </c>
@@ -61283,7 +61426,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="30" customHeight="1">
       <c r="A10" s="145" t="s">
         <v>542</v>
       </c>
@@ -61291,7 +61434,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="30" customHeight="1">
       <c r="A11" s="149" t="s">
         <v>543</v>
       </c>
@@ -61299,7 +61442,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="30" customHeight="1">
       <c r="A12" s="145" t="s">
         <v>586</v>
       </c>
@@ -61307,7 +61450,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="30" customHeight="1">
       <c r="A13" s="146" t="s">
         <v>587</v>
       </c>
@@ -61315,7 +61458,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="30" customHeight="1">
       <c r="A14" s="151" t="s">
         <v>589</v>
       </c>
@@ -61323,7 +61466,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" s="148" t="s">
         <v>545</v>
       </c>
@@ -61331,7 +61474,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="30" customHeight="1">
       <c r="A16" s="145" t="s">
         <v>546</v>
       </c>
@@ -61339,57 +61482,57 @@
         <v>591</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:2" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16.350000000000001" customHeight="1"/>
+    <row r="18" spans="1:2" ht="86.25" customHeight="1">
       <c r="A18" s="547" t="s">
         <v>552</v>
       </c>
       <c r="B18" s="547"/>
     </row>
-    <row r="19" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16.350000000000001" customHeight="1">
       <c r="A19" s="5"/>
     </row>
-    <row r="20" spans="1:2" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="125.25" customHeight="1">
       <c r="A20" s="547" t="s">
         <v>553</v>
       </c>
       <c r="B20" s="547"/>
     </row>
-    <row r="21" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16.350000000000001" customHeight="1">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:2" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="125.45" customHeight="1">
       <c r="A22" s="548" t="s">
         <v>592</v>
       </c>
       <c r="B22" s="548"/>
     </row>
-    <row r="23" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16.350000000000001" customHeight="1">
       <c r="A23" s="6"/>
     </row>
-    <row r="24" spans="1:2" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="132" customHeight="1">
       <c r="A24" s="547" t="s">
         <v>554</v>
       </c>
       <c r="B24" s="547"/>
     </row>
-    <row r="25" spans="1:2" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16.350000000000001" customHeight="1">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:2" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="110.25" customHeight="1">
       <c r="A26" s="547" t="s">
         <v>555</v>
       </c>
       <c r="B26" s="547"/>
     </row>
-    <row r="27" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:2" ht="60" customHeight="1"/>
+    <row r="28" spans="1:2" ht="60" customHeight="1"/>
+    <row r="29" spans="1:2" ht="60" customHeight="1"/>
+    <row r="30" spans="1:2" ht="60" customHeight="1"/>
+    <row r="31" spans="1:2" ht="60" customHeight="1"/>
+    <row r="32" spans="1:2" ht="60" customHeight="1"/>
+    <row r="33" ht="60" customHeight="1"/>
+    <row r="34" ht="60" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A26:B26"/>
@@ -61410,123 +61553,10 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="8aef97a4-ded2-4e4a-9fbc-e666dae3ecd2" ContentTypeId="0x0101008CA7A4F8331B45C7B0D3158B4994D0CA02" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <APRADocScanCheck xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">false</APRADocScanCheck>
-    <j163382b748246d3b6e7caae71dbeeb0 xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Draft</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0e1556d2-3fe8-443a-ada7-3620563b46b3</TermId>
-        </TermInfo>
-      </Terms>
-    </j163382b748246d3b6e7caae71dbeeb0>
-    <l003ee8eff60461aa1bd0027aba92ea4 xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">SUPER</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">622d8f75-8851-e311-9e2e-005056b54f10</TermId>
-        </TermInfo>
-      </Terms>
-    </l003ee8eff60461aa1bd0027aba92ea4>
-    <APRASecurityClassification xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">DLM: Sensitive</APRASecurityClassification>
-    <p10c80fc2da942ae8f2ea9b33b6ea0ba xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p10c80fc2da942ae8f2ea9b33b6ea0ba>
-    <_dlc_DocId xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">VQVUQ2WUPSKA-1683173573-49808</_dlc_DocId>
-    <APRAOwner xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </APRAOwner>
-    <pa005173035e41c3986b37b8e650f3ef xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </pa005173035e41c3986b37b8e650f3ef>
-    <ka2715b9eb154114a4f57d7fbf82ec75 xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ka2715b9eb154114a4f57d7fbf82ec75>
-    <APRADescription xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11" xsi:nil="true"/>
-    <APRAApprovedBy xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </APRAApprovedBy>
-    <APRAMeetingNumber xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11" xsi:nil="true"/>
-    <i08e72d8ce2b4ffa9361f9f4e0a63abc xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2019</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">7f488d12-1aa7-4fe3-8821-bfe8262e80d0</TermId>
-        </TermInfo>
-      </Terms>
-    </i08e72d8ce2b4ffa9361f9f4e0a63abc>
-    <APRAKeywords xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11" xsi:nil="true"/>
-    <APRAMeetingDate xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11" xsi:nil="true"/>
-    <i05115a133414b4dabee2531e4b46b67 xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Analysis</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ec487c86-a28d-4df4-95c6-809f0e294a92</TermId>
-        </TermInfo>
-      </Terms>
-    </i05115a133414b4dabee2531e4b46b67>
-    <ic4067bd02f14cf3a95ad35878404a71 xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ic4067bd02f14cf3a95ad35878404a71>
-    <k4bcc0d734474fea9fb713d9c415b4b0 xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </k4bcc0d734474fea9fb713d9c415b4b0>
-    <_dlc_DocIdUrl xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
-      <Url>https://im/teams/DA/_layouts/15/DocIdRedir.aspx?ID=VQVUQ2WUPSKA-1683173573-49808</Url>
-      <Description>VQVUQ2WUPSKA-1683173573-49808</Description>
-    </_dlc_DocIdUrl>
-    <j724204a644741eb9f777fcb03fe8840 xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j724204a644741eb9f777fcb03fe8840>
-    <APRADate xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11" xsi:nil="true"/>
-    <aa36a5a650d54f768f171f4d17b8b238 xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </aa36a5a650d54f768f171f4d17b8b238>
-    <b37d8d7e823543f58f89056343a9035c xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b37d8d7e823543f58f89056343a9035c>
-    <d9a849fd1b8e46ada0321eb0681a10ee xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </d9a849fd1b8e46ada0321eb0681a10ee>
-    <h67caa35a4114acd8e15fe89b3f29f9e xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Analysis</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">efc90602-ad7a-4e85-a41c-9904c6761bb3</TermId>
-        </TermInfo>
-      </Terms>
-    </h67caa35a4114acd8e15fe89b3f29f9e>
-    <APRAApprovalDate xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11" xsi:nil="true"/>
-    <TaxCatchAll xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
-      <Value>11</Value>
-      <Value>102</Value>
-      <Value>32</Value>
-      <Value>1</Value>
-      <Value>386</Value>
-    </TaxCatchAll>
-    <APRAActivityID xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Standard Content" ma:contentTypeID="0x0101008CA7A4F8331B45C7B0D3158B4994D0CA0200BD2A692CFD66A941B2B82EF45B0E040E" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d455c741b6015f1f8bfec7c4d7a5490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="814d62cb-2db6-4c25-ab62-b9075facbc11" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="932e2b43991d8cf04da7b18cbb69eaa4" ns1:_="">
     <xsd:import namespace="814d62cb-2db6-4c25-ab62-b9075facbc11"/>
@@ -61968,9 +61998,122 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <APRADocScanCheck xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">false</APRADocScanCheck>
+    <j163382b748246d3b6e7caae71dbeeb0 xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Draft</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0e1556d2-3fe8-443a-ada7-3620563b46b3</TermId>
+        </TermInfo>
+      </Terms>
+    </j163382b748246d3b6e7caae71dbeeb0>
+    <l003ee8eff60461aa1bd0027aba92ea4 xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">SUPER</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">622d8f75-8851-e311-9e2e-005056b54f10</TermId>
+        </TermInfo>
+      </Terms>
+    </l003ee8eff60461aa1bd0027aba92ea4>
+    <APRASecurityClassification xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">DLM: Sensitive</APRASecurityClassification>
+    <p10c80fc2da942ae8f2ea9b33b6ea0ba xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p10c80fc2da942ae8f2ea9b33b6ea0ba>
+    <_dlc_DocId xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">VQVUQ2WUPSKA-1683173573-49808</_dlc_DocId>
+    <APRAOwner xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </APRAOwner>
+    <pa005173035e41c3986b37b8e650f3ef xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </pa005173035e41c3986b37b8e650f3ef>
+    <ka2715b9eb154114a4f57d7fbf82ec75 xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ka2715b9eb154114a4f57d7fbf82ec75>
+    <APRADescription xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11" xsi:nil="true"/>
+    <APRAApprovedBy xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </APRAApprovedBy>
+    <APRAMeetingNumber xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11" xsi:nil="true"/>
+    <i08e72d8ce2b4ffa9361f9f4e0a63abc xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2019</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">7f488d12-1aa7-4fe3-8821-bfe8262e80d0</TermId>
+        </TermInfo>
+      </Terms>
+    </i08e72d8ce2b4ffa9361f9f4e0a63abc>
+    <APRAKeywords xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11" xsi:nil="true"/>
+    <APRAMeetingDate xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11" xsi:nil="true"/>
+    <i05115a133414b4dabee2531e4b46b67 xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Analysis</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ec487c86-a28d-4df4-95c6-809f0e294a92</TermId>
+        </TermInfo>
+      </Terms>
+    </i05115a133414b4dabee2531e4b46b67>
+    <ic4067bd02f14cf3a95ad35878404a71 xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ic4067bd02f14cf3a95ad35878404a71>
+    <k4bcc0d734474fea9fb713d9c415b4b0 xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </k4bcc0d734474fea9fb713d9c415b4b0>
+    <_dlc_DocIdUrl xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
+      <Url>https://im/teams/DA/_layouts/15/DocIdRedir.aspx?ID=VQVUQ2WUPSKA-1683173573-49808</Url>
+      <Description>VQVUQ2WUPSKA-1683173573-49808</Description>
+    </_dlc_DocIdUrl>
+    <j724204a644741eb9f777fcb03fe8840 xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j724204a644741eb9f777fcb03fe8840>
+    <APRADate xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11" xsi:nil="true"/>
+    <aa36a5a650d54f768f171f4d17b8b238 xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </aa36a5a650d54f768f171f4d17b8b238>
+    <b37d8d7e823543f58f89056343a9035c xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b37d8d7e823543f58f89056343a9035c>
+    <d9a849fd1b8e46ada0321eb0681a10ee xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </d9a849fd1b8e46ada0321eb0681a10ee>
+    <h67caa35a4114acd8e15fe89b3f29f9e xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Analysis</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">efc90602-ad7a-4e85-a41c-9904c6761bb3</TermId>
+        </TermInfo>
+      </Terms>
+    </h67caa35a4114acd8e15fe89b3f29f9e>
+    <APRAApprovalDate xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11" xsi:nil="true"/>
+    <TaxCatchAll xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11">
+      <Value>11</Value>
+      <Value>102</Value>
+      <Value>32</Value>
+      <Value>1</Value>
+      <Value>386</Value>
+    </TaxCatchAll>
+    <APRAActivityID xmlns="814d62cb-2db6-4c25-ab62-b9075facbc11" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="8aef97a4-ded2-4e4a-9fbc-e666dae3ecd2" ContentTypeId="0x0101008CA7A4F8331B45C7B0D3158B4994D0CA02" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62024,30 +62167,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09071B6C-F9FC-41CE-8D26-85A4FCFB826F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD476D2E-E98F-42FE-A767-141944535AA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B038A7D7-AA13-4766-8D9F-8215DED7BB77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="814d62cb-2db6-4c25-ab62-b9075facbc11"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98197203-08B4-47C7-A355-BB07EBC478EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -62065,10 +62192,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B038A7D7-AA13-4766-8D9F-8215DED7BB77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="814d62cb-2db6-4c25-ab62-b9075facbc11"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD476D2E-E98F-42FE-A767-141944535AA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09071B6C-F9FC-41CE-8D26-85A4FCFB826F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
